--- a/Code/Results/Cases/Case_5_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.2458528759674</v>
+        <v>20.14426245419986</v>
       </c>
       <c r="C2">
-        <v>19.65679783936471</v>
+        <v>13.54720193463825</v>
       </c>
       <c r="D2">
-        <v>4.349752032392269</v>
+        <v>3.808616206013469</v>
       </c>
       <c r="E2">
-        <v>10.7519929591714</v>
+        <v>9.331141255447909</v>
       </c>
       <c r="F2">
-        <v>39.55806285492932</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>39.57986725398857</v>
       </c>
       <c r="I2">
-        <v>24.98728089548709</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.76710831846814</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.52027378320378</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.00160569425097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>28.72478288095829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74430778138235</v>
+        <v>18.71038613271661</v>
       </c>
       <c r="C3">
-        <v>18.23135996649459</v>
+        <v>12.58932349418249</v>
       </c>
       <c r="D3">
-        <v>4.351184597293759</v>
+        <v>3.673288313236991</v>
       </c>
       <c r="E3">
-        <v>10.16114676093361</v>
+        <v>8.957086278593774</v>
       </c>
       <c r="F3">
-        <v>37.32414659280705</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>38.07284688582588</v>
       </c>
       <c r="I3">
-        <v>23.96147998601565</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.639293999516506</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.28392920136069</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.66385076543624</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>27.77586617007139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.77654075796265</v>
+        <v>17.78512606087007</v>
       </c>
       <c r="C4">
-        <v>17.3148324984768</v>
+        <v>11.97071229098846</v>
       </c>
       <c r="D4">
-        <v>4.355577189453126</v>
+        <v>3.589276634063698</v>
       </c>
       <c r="E4">
-        <v>9.795417379959792</v>
+        <v>8.727096030177178</v>
       </c>
       <c r="F4">
-        <v>35.93372189077203</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>37.15991658084526</v>
       </c>
       <c r="I4">
-        <v>23.33901860723272</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.564698845295109</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.48534373510857</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.80432731217249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>27.20761679868049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37041684540007</v>
+        <v>17.39665239478122</v>
       </c>
       <c r="C5">
-        <v>16.93070140924233</v>
+        <v>11.71083804308437</v>
       </c>
       <c r="D5">
-        <v>4.35817230965826</v>
+        <v>3.554860831530197</v>
       </c>
       <c r="E5">
-        <v>9.645709369845383</v>
+        <v>8.633395908342722</v>
       </c>
       <c r="F5">
-        <v>35.36270922091342</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>36.7912571290389</v>
       </c>
       <c r="I5">
-        <v>23.08730059157007</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.535265481594296</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.14983702113449</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.44425420169901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>26.97974834641519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30226411946719</v>
+        <v>17.33145287015604</v>
       </c>
       <c r="C6">
-        <v>16.86626716223861</v>
+        <v>11.66721245002118</v>
       </c>
       <c r="D6">
-        <v>4.358649693597876</v>
+        <v>3.549136816806919</v>
       </c>
       <c r="E6">
-        <v>9.620812832536238</v>
+        <v>8.617841755999386</v>
       </c>
       <c r="F6">
-        <v>35.26763936592687</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>36.73025301728996</v>
       </c>
       <c r="I6">
-        <v>23.045623350154</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.530436018517083</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.0935134731862</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.38386578876344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>26.94213686108203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.77111150146424</v>
+        <v>17.77993339685836</v>
       </c>
       <c r="C7">
-        <v>17.30969536825853</v>
+        <v>11.96723921579031</v>
       </c>
       <c r="D7">
-        <v>4.355609026826066</v>
+        <v>3.588813149407623</v>
       </c>
       <c r="E7">
-        <v>9.793400956365742</v>
+        <v>8.725832117994022</v>
       </c>
       <c r="F7">
-        <v>35.92603830809698</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>37.15493071403779</v>
       </c>
       <c r="I7">
-        <v>23.33561585645866</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.564298005861263</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.48085997046917</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.79951123773269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>27.20452859827627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.73748352111686</v>
+        <v>19.6590793652953</v>
       </c>
       <c r="C8">
-        <v>19.17372056726708</v>
+        <v>13.22317289734322</v>
       </c>
       <c r="D8">
-        <v>4.349467571425725</v>
+        <v>3.762174851810861</v>
       </c>
       <c r="E8">
-        <v>10.5489104919718</v>
+        <v>9.202290070056762</v>
       </c>
       <c r="F8">
-        <v>38.79185430001156</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>39.05781299288395</v>
       </c>
       <c r="I8">
-        <v>24.63208846795477</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.722224753344581</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.10207820734955</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.54812299139029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>28.39465229252979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.24152748577694</v>
+        <v>22.9956088640839</v>
       </c>
       <c r="C9">
-        <v>22.51396197911564</v>
+        <v>15.4502812767342</v>
       </c>
       <c r="D9">
-        <v>4.369213534696413</v>
+        <v>4.092902575000522</v>
       </c>
       <c r="E9">
-        <v>12.00628045330314</v>
+        <v>10.13047565681907</v>
       </c>
       <c r="F9">
-        <v>44.25676927133708</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>42.87943997510524</v>
       </c>
       <c r="I9">
-        <v>27.23211308521705</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.063326721934597</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.97555744194841</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.68581518018186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>30.84042263658912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.61932470129543</v>
+        <v>25.24628657832799</v>
       </c>
       <c r="C10">
-        <v>24.79575871062826</v>
+        <v>16.95191175513847</v>
       </c>
       <c r="D10">
-        <v>4.409221368675629</v>
+        <v>4.328113638335625</v>
       </c>
       <c r="E10">
-        <v>13.0648567950003</v>
+        <v>10.80528446386385</v>
       </c>
       <c r="F10">
-        <v>48.18208423104511</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>45.73655282902575</v>
       </c>
       <c r="I10">
-        <v>29.18129678120883</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.334126189238814</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.91155113256316</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.83147500771951</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>32.70539897582317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.66302395934282</v>
+        <v>26.2296353387151</v>
       </c>
       <c r="C11">
-        <v>25.8015935234334</v>
+        <v>17.60808216133513</v>
       </c>
       <c r="D11">
-        <v>4.434544699302414</v>
+        <v>4.433104495612959</v>
       </c>
       <c r="E11">
-        <v>13.61951777300199</v>
+        <v>11.11045447223963</v>
       </c>
       <c r="F11">
-        <v>49.95720531126663</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>47.04768262343985</v>
       </c>
       <c r="I11">
-        <v>30.07901976564076</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.462025047623695</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.75703916850878</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.77771927339385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>33.56959032606165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.05324194050317</v>
+        <v>26.59646865797161</v>
       </c>
       <c r="C12">
-        <v>26.17836313785368</v>
+        <v>17.85289786920185</v>
       </c>
       <c r="D12">
-        <v>4.445312546164777</v>
+        <v>4.472554500731173</v>
       </c>
       <c r="E12">
-        <v>13.83079963008238</v>
+        <v>11.22576335094856</v>
       </c>
       <c r="F12">
-        <v>50.66815410450266</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>47.54600383724933</v>
       </c>
       <c r="I12">
-        <v>30.42089682170243</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.511169908790569</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.07240141671429</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25.13222236439395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>33.89927413110489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.96941630621534</v>
+        <v>26.51770600462701</v>
       </c>
       <c r="C13">
-        <v>26.09739326435917</v>
+        <v>17.80033165869728</v>
       </c>
       <c r="D13">
-        <v>4.44293840056566</v>
+        <v>4.464072158221346</v>
       </c>
       <c r="E13">
-        <v>13.78535713402064</v>
+        <v>11.20094036108187</v>
       </c>
       <c r="F13">
-        <v>50.51517678717282</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>47.43859606677729</v>
       </c>
       <c r="I13">
-        <v>30.34717487563536</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.500553342792922</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>23.00469183774894</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.05603531923849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>33.82815920427384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.69522496158485</v>
+        <v>26.25992420310735</v>
       </c>
       <c r="C14">
-        <v>25.83266992616047</v>
+        <v>17.62829538802347</v>
       </c>
       <c r="D14">
-        <v>4.435405999389983</v>
+        <v>4.436356325260657</v>
       </c>
       <c r="E14">
-        <v>13.63692803404827</v>
+        <v>11.11994593024419</v>
       </c>
       <c r="F14">
-        <v>50.01575918171797</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>47.08864175489929</v>
       </c>
       <c r="I14">
-        <v>30.10710512560591</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.466053714428567</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.78307894655532</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.80695802894943</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>33.59666364520605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.52663722361624</v>
+        <v>26.1013130306649</v>
       </c>
       <c r="C15">
-        <v>25.66999935582009</v>
+        <v>17.52244801185402</v>
       </c>
       <c r="D15">
-        <v>4.430950592745324</v>
+        <v>4.41933904354802</v>
       </c>
       <c r="E15">
-        <v>13.54582623626485</v>
+        <v>11.07030227749693</v>
       </c>
       <c r="F15">
-        <v>49.72005140322958</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>46.87452978435132</v>
       </c>
       <c r="I15">
-        <v>29.96031898361944</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.445015661971878</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22.64671693433507</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.65390889494956</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>33.45518891415909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.55038951209167</v>
+        <v>25.1812310010097</v>
       </c>
       <c r="C16">
-        <v>24.72941935909984</v>
+        <v>16.90850503735552</v>
       </c>
       <c r="D16">
-        <v>4.407722473013273</v>
+        <v>4.321210063067245</v>
       </c>
       <c r="E16">
-        <v>13.03344605269895</v>
+        <v>10.78530461326214</v>
       </c>
       <c r="F16">
-        <v>48.06610252524158</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>45.6511100763945</v>
       </c>
       <c r="I16">
-        <v>29.12287692450435</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.325865268585054</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.85560936675613</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.76907401179652</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>32.64925206088942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.94206845856084</v>
+        <v>24.60660954208558</v>
       </c>
       <c r="C17">
-        <v>24.14450238533557</v>
+        <v>16.52511599824988</v>
       </c>
       <c r="D17">
-        <v>4.395400514988316</v>
+        <v>4.260481286990176</v>
       </c>
       <c r="E17">
-        <v>12.75808534147531</v>
+        <v>10.61000284965824</v>
       </c>
       <c r="F17">
-        <v>47.04808650855395</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>44.90359874336551</v>
       </c>
       <c r="I17">
-        <v>28.61216417255875</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.253998947781443</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.36144728227166</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.21892861716066</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>32.15897446023868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.58857343877546</v>
+        <v>24.2722718749441</v>
       </c>
       <c r="C18">
-        <v>23.80501145052303</v>
+        <v>16.30205214260162</v>
       </c>
       <c r="D18">
-        <v>4.388973395253943</v>
+        <v>4.2253634486296</v>
       </c>
       <c r="E18">
-        <v>12.59959913101374</v>
+        <v>10.50900218401897</v>
       </c>
       <c r="F18">
-        <v>46.4611167350774</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>44.47470654256576</v>
       </c>
       <c r="I18">
-        <v>28.31942646938794</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.213104167058998</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.07388767508006</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.89965993310329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>31.8784534193802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.4682542655861</v>
+        <v>24.15840489507883</v>
       </c>
       <c r="C19">
-        <v>23.68952551984804</v>
+        <v>16.22608280566093</v>
       </c>
       <c r="D19">
-        <v>4.386906301743081</v>
+        <v>4.213441504003955</v>
       </c>
       <c r="E19">
-        <v>12.54591469587796</v>
+        <v>10.47477579451451</v>
       </c>
       <c r="F19">
-        <v>46.26211650259067</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>44.32966881098177</v>
       </c>
       <c r="I19">
-        <v>28.22047564273488</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.199332692112432</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.9759455362966</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.79106020430387</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>31.78372325092882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.00719529959857</v>
+        <v>24.66817348631855</v>
       </c>
       <c r="C20">
-        <v>24.20708129261294</v>
+        <v>16.56619074166927</v>
       </c>
       <c r="D20">
-        <v>4.396642835979344</v>
+        <v>4.266965610501798</v>
       </c>
       <c r="E20">
-        <v>12.78740757299219</v>
+        <v>10.628681823981</v>
       </c>
       <c r="F20">
-        <v>47.15660048424321</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>44.98306230243333</v>
       </c>
       <c r="I20">
-        <v>28.66642371433548</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.261603392810015</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.41439462190064</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.27778325335411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>32.21101190773777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.77589357796746</v>
+        <v>26.33578886731995</v>
       </c>
       <c r="C21">
-        <v>25.910532907926</v>
+        <v>17.6789241864379</v>
       </c>
       <c r="D21">
-        <v>4.437585130498974</v>
+        <v>4.444505609367571</v>
       </c>
       <c r="E21">
-        <v>13.68056306238647</v>
+        <v>11.14374262499399</v>
       </c>
       <c r="F21">
-        <v>50.1625362837049</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>47.19138023001059</v>
       </c>
       <c r="I21">
-        <v>30.17756372173477</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.476167432975696</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.84830025501441</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.88021758631852</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>33.66459179431106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.90291148065304</v>
+        <v>27.39354213114276</v>
       </c>
       <c r="C22">
-        <v>27.00013065985608</v>
+        <v>18.38493306258933</v>
       </c>
       <c r="D22">
-        <v>4.471300033396878</v>
+        <v>4.558740180916341</v>
       </c>
       <c r="E22">
-        <v>14.29314484167859</v>
+        <v>11.47891536583273</v>
       </c>
       <c r="F22">
-        <v>52.22645302647946</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>48.64545492859541</v>
       </c>
       <c r="I22">
-        <v>31.17667818782193</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.620573032892923</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.75757092319998</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.90551764716461</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>34.62890651159245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.30387933880063</v>
+        <v>26.8318357410778</v>
       </c>
       <c r="C23">
-        <v>26.42057122340589</v>
+        <v>18.00998865690921</v>
       </c>
       <c r="D23">
-        <v>4.452612475035525</v>
+        <v>4.4979401817104</v>
       </c>
       <c r="E23">
-        <v>13.96685413153641</v>
+        <v>11.3001509394494</v>
       </c>
       <c r="F23">
-        <v>51.12637344058152</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>47.86830576309459</v>
       </c>
       <c r="I23">
-        <v>30.64223266022594</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.543104833942207</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.27473317343368</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.3601309045202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>34.11284958960216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.97776320924343</v>
+        <v>24.64035284533168</v>
       </c>
       <c r="C24">
-        <v>24.17879941776792</v>
+        <v>16.54762911487537</v>
       </c>
       <c r="D24">
-        <v>4.396079147832797</v>
+        <v>4.264034681905827</v>
       </c>
       <c r="E24">
-        <v>12.77415156096628</v>
+        <v>10.62023773686164</v>
       </c>
       <c r="F24">
-        <v>47.1075466529254</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>44.94713415461802</v>
       </c>
       <c r="I24">
-        <v>28.6418902653568</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.258164110891598</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.3904679234181</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.25118439731011</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>32.18748159606338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.32954617598081</v>
+        <v>22.12916387575832</v>
       </c>
       <c r="C25">
-        <v>21.64217108824344</v>
+        <v>14.87214030390511</v>
       </c>
       <c r="D25">
-        <v>4.359879872468366</v>
+        <v>4.004665886850347</v>
       </c>
       <c r="E25">
-        <v>11.61453263523828</v>
+        <v>9.880461482415873</v>
       </c>
       <c r="F25">
-        <v>42.79510356359792</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>41.83681091860706</v>
       </c>
       <c r="I25">
-        <v>26.52244502635295</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.967592159363589</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.22983546595008</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.86646043311248</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>30.1669650518114</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.14426245419986</v>
+        <v>21.34919022353484</v>
       </c>
       <c r="C2">
-        <v>13.54720193463825</v>
+        <v>12.25416528577315</v>
       </c>
       <c r="D2">
-        <v>3.808616206013469</v>
+        <v>4.011326362211576</v>
       </c>
       <c r="E2">
-        <v>9.331141255447909</v>
+        <v>6.729382108060247</v>
       </c>
       <c r="F2">
-        <v>39.57986725398857</v>
+        <v>19.43947684851995</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>13.1692196161807</v>
       </c>
       <c r="J2">
-        <v>6.76710831846814</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.52027378320378</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.283354386559164</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11.61058767969196</v>
       </c>
       <c r="O2">
-        <v>28.72478288095829</v>
+        <v>15.12171418146832</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.71038613271661</v>
+        <v>19.91538461742335</v>
       </c>
       <c r="C3">
-        <v>12.58932349418249</v>
+        <v>11.67517096243633</v>
       </c>
       <c r="D3">
-        <v>3.673288313236991</v>
+        <v>3.899113725011883</v>
       </c>
       <c r="E3">
-        <v>8.957086278593774</v>
+        <v>6.757698356730149</v>
       </c>
       <c r="F3">
-        <v>38.07284688582588</v>
+        <v>18.74833624107812</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>13.2157328287259</v>
       </c>
       <c r="J3">
-        <v>6.639293999516506</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>16.28392920136069</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.021169348069216</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>11.73824387464341</v>
       </c>
       <c r="O3">
-        <v>27.77586617007139</v>
+        <v>14.80836298832359</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.78512606087007</v>
+        <v>18.98243774131462</v>
       </c>
       <c r="C4">
-        <v>11.97071229098846</v>
+        <v>11.30416590228597</v>
       </c>
       <c r="D4">
-        <v>3.589276634063698</v>
+        <v>3.828197527829016</v>
       </c>
       <c r="E4">
-        <v>8.727096030177178</v>
+        <v>6.779536266636602</v>
       </c>
       <c r="F4">
-        <v>37.15991658084526</v>
+        <v>18.33099309647074</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>13.2586050661598</v>
       </c>
       <c r="J4">
-        <v>6.564698845295109</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>15.48534373510857</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.85890990677456</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>11.82017921998099</v>
       </c>
       <c r="O4">
-        <v>27.20761679868049</v>
+        <v>14.62848032956853</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.39665239478122</v>
+        <v>18.58895686602511</v>
       </c>
       <c r="C5">
-        <v>11.71083804308437</v>
+        <v>11.14918952222041</v>
       </c>
       <c r="D5">
-        <v>3.554860831530197</v>
+        <v>3.798817164809434</v>
       </c>
       <c r="E5">
-        <v>8.633395908342722</v>
+        <v>6.789518195180334</v>
       </c>
       <c r="F5">
-        <v>36.7912571290389</v>
+        <v>18.16292673994014</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>13.27950254123163</v>
       </c>
       <c r="J5">
-        <v>6.535265481594296</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>15.14983702113449</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.792562949640703</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>11.85445111985794</v>
       </c>
       <c r="O5">
-        <v>26.97974834641519</v>
+        <v>14.55833284436681</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.33145287015604</v>
+        <v>18.52281437381694</v>
       </c>
       <c r="C6">
-        <v>11.66721245002118</v>
+        <v>11.12323057055608</v>
       </c>
       <c r="D6">
-        <v>3.549136816806919</v>
+        <v>3.793910296727033</v>
       </c>
       <c r="E6">
-        <v>8.617841755999386</v>
+        <v>6.791240030264542</v>
       </c>
       <c r="F6">
-        <v>36.73025301728996</v>
+        <v>18.13514765042289</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>13.28317451508872</v>
       </c>
       <c r="J6">
-        <v>6.530436018517083</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>15.0935134731862</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.781535472938629</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>11.86019495154858</v>
       </c>
       <c r="O6">
-        <v>26.94213686108203</v>
+        <v>14.54687554838165</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.77993339685836</v>
+        <v>18.9771850597691</v>
       </c>
       <c r="C7">
-        <v>11.96723921579031</v>
+        <v>11.30209101827554</v>
       </c>
       <c r="D7">
-        <v>3.588813149407623</v>
+        <v>3.827803207626694</v>
       </c>
       <c r="E7">
-        <v>8.725832117994022</v>
+        <v>6.779666549963101</v>
       </c>
       <c r="F7">
-        <v>37.15493071403779</v>
+        <v>18.32871805708995</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>13.25887324853706</v>
       </c>
       <c r="J7">
-        <v>6.564298005861263</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>15.48085997046917</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.85801590610066</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>11.82063786284663</v>
       </c>
       <c r="O7">
-        <v>27.20452859827627</v>
+        <v>14.62752151417131</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.6590793652953</v>
+        <v>20.86568251434587</v>
       </c>
       <c r="C8">
-        <v>13.22317289734322</v>
+        <v>12.0578041048226</v>
       </c>
       <c r="D8">
-        <v>3.762174851810861</v>
+        <v>3.973068913272859</v>
       </c>
       <c r="E8">
-        <v>9.202290070056762</v>
+        <v>6.738199373218221</v>
       </c>
       <c r="F8">
-        <v>39.05781299288395</v>
+        <v>19.19985489571414</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>13.18218247536112</v>
       </c>
       <c r="J8">
-        <v>6.722224753344581</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>17.10207820734955</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.193273026511479</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>11.65385881266784</v>
       </c>
       <c r="O8">
-        <v>28.39465229252979</v>
+        <v>15.01108178999742</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.9956088640839</v>
+        <v>24.15523066777069</v>
       </c>
       <c r="C9">
-        <v>15.4502812767342</v>
+        <v>13.41299047207793</v>
       </c>
       <c r="D9">
-        <v>4.092902575000522</v>
+        <v>4.240908494250801</v>
       </c>
       <c r="E9">
-        <v>10.13047565681907</v>
+        <v>6.69387889261847</v>
       </c>
       <c r="F9">
-        <v>42.87943997510524</v>
+        <v>20.95401766896203</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>13.15312291908279</v>
       </c>
       <c r="J9">
-        <v>7.063326721934597</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>19.97555744194841</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.836811126487196</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11.35557688788084</v>
       </c>
       <c r="O9">
-        <v>30.84042263658912</v>
+        <v>15.8616612051485</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.24628657832799</v>
+        <v>26.32469435842275</v>
       </c>
       <c r="C10">
-        <v>16.95191175513847</v>
+        <v>14.32754445989455</v>
       </c>
       <c r="D10">
-        <v>4.328113638335625</v>
+        <v>4.426101121267791</v>
       </c>
       <c r="E10">
-        <v>10.80528446386385</v>
+        <v>6.686216634558108</v>
       </c>
       <c r="F10">
-        <v>45.73655282902575</v>
+        <v>22.25896691086268</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>13.21633664051168</v>
       </c>
       <c r="J10">
-        <v>7.334126189238814</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>21.91155113256316</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.296775857418739</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.15488676239063</v>
       </c>
       <c r="O10">
-        <v>32.70539897582317</v>
+        <v>16.54490875656895</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.2296353387151</v>
+        <v>27.25901852368518</v>
       </c>
       <c r="C11">
-        <v>17.60808216133513</v>
+        <v>14.72548197306854</v>
       </c>
       <c r="D11">
-        <v>4.433104495612959</v>
+        <v>4.507620619680991</v>
       </c>
       <c r="E11">
-        <v>11.11045447223963</v>
+        <v>6.688654753422214</v>
       </c>
       <c r="F11">
-        <v>47.04768262343985</v>
+        <v>22.85410498122088</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>13.26569014709166</v>
       </c>
       <c r="J11">
-        <v>7.462025047623695</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>22.75703916850878</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.502508274654021</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>11.06784043847136</v>
       </c>
       <c r="O11">
-        <v>33.56959032606165</v>
+        <v>16.8679650411229</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.59646865797161</v>
+        <v>27.60535345138709</v>
       </c>
       <c r="C12">
-        <v>17.85289786920185</v>
+        <v>14.87354169258767</v>
       </c>
       <c r="D12">
-        <v>4.472554500731173</v>
+        <v>4.538082855249455</v>
       </c>
       <c r="E12">
-        <v>11.22576335094856</v>
+        <v>6.690473110711769</v>
       </c>
       <c r="F12">
-        <v>47.54600383724933</v>
+        <v>23.07955112788478</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13.28751925109682</v>
       </c>
       <c r="J12">
-        <v>7.511169908790569</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>23.07240141671429</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.57986118620593</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>11.03551353305172</v>
       </c>
       <c r="O12">
-        <v>33.89927413110489</v>
+        <v>16.99202098796562</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.51770600462701</v>
+        <v>27.53109499039943</v>
       </c>
       <c r="C13">
-        <v>17.80033165869728</v>
+        <v>14.84177171225978</v>
       </c>
       <c r="D13">
-        <v>4.464072158221346</v>
+        <v>4.531540614645261</v>
       </c>
       <c r="E13">
-        <v>11.20094036108187</v>
+        <v>6.690040990948448</v>
       </c>
       <c r="F13">
-        <v>47.43859606677729</v>
+        <v>23.03099557473233</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>13.28267553027109</v>
       </c>
       <c r="J13">
-        <v>7.500553342792922</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>23.00469183774894</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.563227152500232</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>11.04244701257842</v>
       </c>
       <c r="O13">
-        <v>33.82815920427384</v>
+        <v>16.96522733703913</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.25992420310735</v>
+        <v>27.28766097502905</v>
       </c>
       <c r="C14">
-        <v>17.62829538802347</v>
+        <v>14.73771577888014</v>
       </c>
       <c r="D14">
-        <v>4.436356325260657</v>
+        <v>4.510135013557499</v>
       </c>
       <c r="E14">
-        <v>11.11994593024419</v>
+        <v>6.688786162070455</v>
       </c>
       <c r="F14">
-        <v>47.08864175489929</v>
+        <v>22.87265164617441</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13.26742210853711</v>
       </c>
       <c r="J14">
-        <v>7.466053714428567</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>22.78307894655532</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.50888348624853</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11.06516799237285</v>
       </c>
       <c r="O14">
-        <v>33.59666364520605</v>
+        <v>16.87813690734783</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.1013130306649</v>
+        <v>27.1375799918691</v>
       </c>
       <c r="C15">
-        <v>17.52244801185402</v>
+        <v>14.67363528556326</v>
       </c>
       <c r="D15">
-        <v>4.41933904354802</v>
+        <v>4.496969978438836</v>
       </c>
       <c r="E15">
-        <v>11.07030227749693</v>
+        <v>6.688135403895097</v>
       </c>
       <c r="F15">
-        <v>46.87452978435132</v>
+        <v>22.77566829098556</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.25849306684426</v>
       </c>
       <c r="J15">
-        <v>7.445015661971878</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>22.64671693433507</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.475523042236038</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.07916881588869</v>
       </c>
       <c r="O15">
-        <v>33.45518891415909</v>
+        <v>16.82501459958321</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.1812310010097</v>
+        <v>26.2625834863494</v>
       </c>
       <c r="C16">
-        <v>16.90850503735552</v>
+        <v>14.30117147789146</v>
       </c>
       <c r="D16">
-        <v>4.321210063067245</v>
+        <v>4.420717416149559</v>
       </c>
       <c r="E16">
-        <v>10.78530461326214</v>
+        <v>6.686180185097826</v>
       </c>
       <c r="F16">
-        <v>45.6511100763945</v>
+        <v>22.22009128504499</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>13.21354108486925</v>
       </c>
       <c r="J16">
-        <v>7.325865268585054</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>21.85560936675613</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.2832557673949</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.16066297804285</v>
       </c>
       <c r="O16">
-        <v>32.64925206088942</v>
+        <v>16.52403923085383</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.60660954208558</v>
+        <v>25.7123965309926</v>
       </c>
       <c r="C17">
-        <v>16.52511599824988</v>
+        <v>14.06801818093028</v>
       </c>
       <c r="D17">
-        <v>4.260481286990176</v>
+        <v>4.373229214033047</v>
       </c>
       <c r="E17">
-        <v>10.61000284965824</v>
+        <v>6.686528547065322</v>
       </c>
       <c r="F17">
-        <v>44.90359874336551</v>
+        <v>21.87954332355392</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>13.191368246597</v>
       </c>
       <c r="J17">
-        <v>7.253998947781443</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>21.36144728227166</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.164369717866661</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.21176178277185</v>
       </c>
       <c r="O17">
-        <v>32.15897446023868</v>
+        <v>16.34250779293804</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.2722718749441</v>
+        <v>25.39098949645012</v>
       </c>
       <c r="C18">
-        <v>16.30205214260162</v>
+        <v>13.93221207095977</v>
       </c>
       <c r="D18">
-        <v>4.2253634486296</v>
+        <v>4.345659514108272</v>
       </c>
       <c r="E18">
-        <v>10.50900218401897</v>
+        <v>6.687283860861879</v>
       </c>
       <c r="F18">
-        <v>44.47470654256576</v>
+        <v>21.68381773762906</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.18054334446143</v>
       </c>
       <c r="J18">
-        <v>7.213104167058998</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>21.07388767508006</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.095661767489549</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.24155070442061</v>
       </c>
       <c r="O18">
-        <v>31.8784534193802</v>
+        <v>16.23925038545972</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.15840489507883</v>
+        <v>25.28131313189363</v>
       </c>
       <c r="C19">
-        <v>16.22608280566093</v>
+        <v>13.88593908858572</v>
       </c>
       <c r="D19">
-        <v>4.213441504003955</v>
+        <v>4.33628146751512</v>
       </c>
       <c r="E19">
-        <v>10.47477579451451</v>
+        <v>6.687633599664568</v>
       </c>
       <c r="F19">
-        <v>44.32966881098177</v>
+        <v>21.61757856718407</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.17720390197202</v>
       </c>
       <c r="J19">
-        <v>7.199332692112432</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>20.9759455362966</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.072343776433152</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.25170441749355</v>
       </c>
       <c r="O19">
-        <v>31.78372325092882</v>
+        <v>16.20448875543774</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.66817348631855</v>
+        <v>25.77147697615209</v>
       </c>
       <c r="C20">
-        <v>16.56619074166927</v>
+        <v>14.09301418836244</v>
       </c>
       <c r="D20">
-        <v>4.266965610501798</v>
+        <v>4.378311000946788</v>
       </c>
       <c r="E20">
-        <v>10.628681823981</v>
+        <v>6.686433716841826</v>
       </c>
       <c r="F20">
-        <v>44.98306230243333</v>
+        <v>21.91578093728167</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>13.19352770197368</v>
       </c>
       <c r="J20">
-        <v>7.261603392810015</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>21.41439462190064</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.177059655717969</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11.20628084238288</v>
       </c>
       <c r="O20">
-        <v>32.21101190773777</v>
+        <v>16.36171291314484</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.33578886731995</v>
+        <v>27.35936556300666</v>
       </c>
       <c r="C21">
-        <v>17.6789241864379</v>
+        <v>14.76835109281455</v>
       </c>
       <c r="D21">
-        <v>4.444505609367571</v>
+        <v>4.516433528962104</v>
       </c>
       <c r="E21">
-        <v>11.14374262499399</v>
+        <v>6.689130095737758</v>
       </c>
       <c r="F21">
-        <v>47.19138023001059</v>
+        <v>22.91915986848688</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.27181579577</v>
       </c>
       <c r="J21">
-        <v>7.476167432975696</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>22.84830025501441</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.524860905178565</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.05847682590551</v>
       </c>
       <c r="O21">
-        <v>33.66459179431106</v>
+        <v>16.90367104915619</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.39354213114276</v>
+        <v>28.35362467165413</v>
       </c>
       <c r="C22">
-        <v>18.38493306258933</v>
+        <v>15.19438412075155</v>
       </c>
       <c r="D22">
-        <v>4.558740180916341</v>
+        <v>4.604323925561992</v>
       </c>
       <c r="E22">
-        <v>11.47891536583273</v>
+        <v>6.696130054823089</v>
       </c>
       <c r="F22">
-        <v>48.64545492859541</v>
+        <v>23.57535058660365</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>13.34136261556076</v>
       </c>
       <c r="J22">
-        <v>7.620573032892923</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>23.75757092319998</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.748926663830842</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.96559719661151</v>
       </c>
       <c r="O22">
-        <v>34.62890651159245</v>
+        <v>17.267891485034</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.8318357410778</v>
+        <v>27.82692223251682</v>
       </c>
       <c r="C23">
-        <v>18.00998865690921</v>
+        <v>14.96841231895238</v>
       </c>
       <c r="D23">
-        <v>4.4979401817104</v>
+        <v>4.557637624428911</v>
       </c>
       <c r="E23">
-        <v>11.3001509394494</v>
+        <v>6.69190036795703</v>
       </c>
       <c r="F23">
-        <v>47.86830576309459</v>
+        <v>23.22512827375151</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13.30250485935341</v>
       </c>
       <c r="J23">
-        <v>7.543104833942207</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>23.27473317343368</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.629649074309057</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.01481952574043</v>
       </c>
       <c r="O23">
-        <v>34.11284958960216</v>
+        <v>17.07259525620847</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.64035284533168</v>
+        <v>25.74478259015896</v>
       </c>
       <c r="C24">
-        <v>16.54762911487537</v>
+        <v>14.08171898303886</v>
       </c>
       <c r="D24">
-        <v>4.264034681905827</v>
+        <v>4.376014358957602</v>
       </c>
       <c r="E24">
-        <v>10.62023773686164</v>
+        <v>6.686474864044283</v>
       </c>
       <c r="F24">
-        <v>44.94713415461802</v>
+        <v>21.89939771458044</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>13.19254543742659</v>
       </c>
       <c r="J24">
-        <v>7.258164110891598</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>21.3904679234181</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.171323648496335</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11.20875749551223</v>
       </c>
       <c r="O24">
-        <v>32.18748159606338</v>
+        <v>16.35302682585757</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.12916387575832</v>
+        <v>23.30912200146162</v>
       </c>
       <c r="C25">
-        <v>14.87214030390511</v>
+        <v>13.06040241621708</v>
       </c>
       <c r="D25">
-        <v>4.004665886850347</v>
+        <v>4.170406731391214</v>
       </c>
       <c r="E25">
-        <v>9.880461482415873</v>
+        <v>6.701668531582043</v>
       </c>
       <c r="F25">
-        <v>41.83681091860706</v>
+        <v>20.47585813545549</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13.14689764459675</v>
       </c>
       <c r="J25">
-        <v>6.967592159363589</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>19.22983546595008</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.664692862090987</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>11.43310321271344</v>
       </c>
       <c r="O25">
-        <v>30.1669650518114</v>
+        <v>15.62117044099024</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.34919022353484</v>
+        <v>15.33611787836899</v>
       </c>
       <c r="C2">
-        <v>12.25416528577315</v>
+        <v>9.62931669507082</v>
       </c>
       <c r="D2">
-        <v>4.011326362211576</v>
+        <v>4.597420465463608</v>
       </c>
       <c r="E2">
-        <v>6.729382108060247</v>
+        <v>11.29807201308701</v>
       </c>
       <c r="F2">
-        <v>19.43947684851995</v>
+        <v>23.94278361640686</v>
       </c>
       <c r="I2">
-        <v>13.1692196161807</v>
+        <v>21.21371602361772</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.283354386559164</v>
+        <v>9.793511073609263</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.61058767969196</v>
+        <v>16.97128367727474</v>
       </c>
       <c r="O2">
-        <v>15.12171418146832</v>
+        <v>21.30764794258969</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.91538461742335</v>
+        <v>14.79978730627835</v>
       </c>
       <c r="C3">
-        <v>11.67517096243633</v>
+        <v>9.385398829475919</v>
       </c>
       <c r="D3">
-        <v>3.899113725011883</v>
+        <v>4.561524701291841</v>
       </c>
       <c r="E3">
-        <v>6.757698356730149</v>
+        <v>11.33472574819229</v>
       </c>
       <c r="F3">
-        <v>18.74833624107812</v>
+        <v>23.90313876310368</v>
       </c>
       <c r="I3">
-        <v>13.2157328287259</v>
+        <v>21.30434765447411</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,16 +486,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.021169348069216</v>
+        <v>9.766638514954566</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.73824387464341</v>
+        <v>17.01751924943386</v>
       </c>
       <c r="O3">
-        <v>14.80836298832359</v>
+        <v>21.33763568331365</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.98243774131462</v>
+        <v>14.46219974906846</v>
       </c>
       <c r="C4">
-        <v>11.30416590228597</v>
+        <v>9.231070339598851</v>
       </c>
       <c r="D4">
-        <v>3.828197527829016</v>
+        <v>4.539054447938458</v>
       </c>
       <c r="E4">
-        <v>6.779536266636602</v>
+        <v>11.35908074061769</v>
       </c>
       <c r="F4">
-        <v>18.33099309647074</v>
+        <v>23.88630220175017</v>
       </c>
       <c r="I4">
-        <v>13.2586050661598</v>
+        <v>21.36494592026638</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.85890990677456</v>
+        <v>9.75186690558504</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.82017921998099</v>
+        <v>17.04769044553765</v>
       </c>
       <c r="O4">
-        <v>14.62848032956853</v>
+        <v>21.36183839125057</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.58895686602511</v>
+        <v>14.32275817636329</v>
       </c>
       <c r="C5">
-        <v>11.14918952222041</v>
+        <v>9.167091483399329</v>
       </c>
       <c r="D5">
-        <v>3.798817164809434</v>
+        <v>4.529793137811152</v>
       </c>
       <c r="E5">
-        <v>6.789518195180334</v>
+        <v>11.36947058010747</v>
       </c>
       <c r="F5">
-        <v>18.16292673994014</v>
+        <v>23.88133300709764</v>
       </c>
       <c r="I5">
-        <v>13.27950254123163</v>
+        <v>21.39088183560243</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.792562949640703</v>
+        <v>9.746286305178936</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.85445111985794</v>
+        <v>17.06043444482736</v>
       </c>
       <c r="O5">
-        <v>14.55833284436681</v>
+        <v>21.37315355256291</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.52281437381694</v>
+        <v>14.29949746584862</v>
       </c>
       <c r="C6">
-        <v>11.12323057055608</v>
+        <v>9.156403872213788</v>
       </c>
       <c r="D6">
-        <v>3.793910296727033</v>
+        <v>4.528249100109575</v>
       </c>
       <c r="E6">
-        <v>6.791240030264542</v>
+        <v>11.37122388656356</v>
       </c>
       <c r="F6">
-        <v>18.13514765042289</v>
+        <v>23.88062223020153</v>
       </c>
       <c r="I6">
-        <v>13.28317451508872</v>
+        <v>21.39526337482694</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.781535472938629</v>
+        <v>9.745386281979393</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.86019495154858</v>
+        <v>17.06257771805997</v>
       </c>
       <c r="O6">
-        <v>14.54687554838165</v>
+        <v>21.37512002751485</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.9771850597691</v>
+        <v>14.4603264789444</v>
       </c>
       <c r="C7">
-        <v>11.30209101827554</v>
+        <v>9.230211826494209</v>
       </c>
       <c r="D7">
-        <v>3.827803207626694</v>
+        <v>4.538929964947791</v>
       </c>
       <c r="E7">
-        <v>6.779666549963101</v>
+        <v>11.35921897902846</v>
       </c>
       <c r="F7">
-        <v>18.32871805708995</v>
+        <v>23.88622752105204</v>
       </c>
       <c r="I7">
-        <v>13.25887324853706</v>
+        <v>21.36529067791629</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.85801590610066</v>
+        <v>9.751789860890664</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.82063786284663</v>
+        <v>17.04786049654992</v>
       </c>
       <c r="O7">
-        <v>14.62752151417131</v>
+        <v>21.36198511618566</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86568251434587</v>
+        <v>15.15302908782256</v>
       </c>
       <c r="C8">
-        <v>12.0578041048226</v>
+        <v>9.546194401480383</v>
       </c>
       <c r="D8">
-        <v>3.973068913272859</v>
+        <v>4.585135055784989</v>
       </c>
       <c r="E8">
-        <v>6.738199373218221</v>
+        <v>11.31032632289195</v>
       </c>
       <c r="F8">
-        <v>19.19985489571414</v>
+        <v>23.92755961959307</v>
       </c>
       <c r="I8">
-        <v>13.18218247536112</v>
+        <v>21.24393656076753</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.193273026511479</v>
+        <v>9.783889455423596</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.65385881266784</v>
+        <v>16.98685625101474</v>
       </c>
       <c r="O8">
-        <v>15.01108178999742</v>
+        <v>21.31678399483671</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.15523066777069</v>
+        <v>16.43750218531817</v>
       </c>
       <c r="C9">
-        <v>13.41299047207793</v>
+        <v>10.12728418958737</v>
       </c>
       <c r="D9">
-        <v>4.240908494250801</v>
+        <v>4.672172816317947</v>
       </c>
       <c r="E9">
-        <v>6.69387889261847</v>
+        <v>11.22912585648783</v>
       </c>
       <c r="F9">
-        <v>20.95401766896203</v>
+        <v>24.06787303428634</v>
       </c>
       <c r="I9">
-        <v>13.15312291908279</v>
+        <v>21.04537618889175</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.836811126487196</v>
+        <v>9.860340714839054</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.35557688788084</v>
+        <v>16.88133364027148</v>
       </c>
       <c r="O9">
-        <v>15.8616612051485</v>
+        <v>21.27422101782892</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.32469435842275</v>
+        <v>17.32645871805533</v>
       </c>
       <c r="C10">
-        <v>14.32754445989455</v>
+        <v>10.52785043375107</v>
       </c>
       <c r="D10">
-        <v>4.426101121267791</v>
+        <v>4.73373651895815</v>
       </c>
       <c r="E10">
-        <v>6.686216634558108</v>
+        <v>11.17842023797238</v>
       </c>
       <c r="F10">
-        <v>22.25896691086268</v>
+        <v>24.20656221360428</v>
       </c>
       <c r="I10">
-        <v>13.21633664051168</v>
+        <v>20.92370960583138</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.296775857418739</v>
+        <v>9.924438123534463</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.15488676239063</v>
+        <v>16.81235697984877</v>
       </c>
       <c r="O10">
-        <v>16.54490875656895</v>
+        <v>21.27118249664104</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.25901852368518</v>
+        <v>17.71729242500076</v>
       </c>
       <c r="C11">
-        <v>14.72548197306854</v>
+        <v>10.70383091105485</v>
       </c>
       <c r="D11">
-        <v>4.507620619680991</v>
+        <v>4.761183186996946</v>
       </c>
       <c r="E11">
-        <v>6.688654753422214</v>
+        <v>11.15729778451201</v>
       </c>
       <c r="F11">
-        <v>22.85410498122088</v>
+        <v>24.27723070043848</v>
       </c>
       <c r="I11">
-        <v>13.26569014709166</v>
+        <v>20.87365832169452</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.502508274654021</v>
+        <v>9.955246902742152</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.06784043847136</v>
+        <v>16.78282440021101</v>
       </c>
       <c r="O11">
-        <v>16.8679650411229</v>
+        <v>21.27594640141345</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.60535345138709</v>
+        <v>17.86322277005385</v>
       </c>
       <c r="C12">
-        <v>14.87354169258767</v>
+        <v>10.76953435833005</v>
       </c>
       <c r="D12">
-        <v>4.538082855249455</v>
+        <v>4.771492574080225</v>
       </c>
       <c r="E12">
-        <v>6.690473110711769</v>
+        <v>11.14957887830411</v>
       </c>
       <c r="F12">
-        <v>23.07955112788478</v>
+        <v>24.30506448100369</v>
       </c>
       <c r="I12">
-        <v>13.28751925109682</v>
+        <v>20.85546997235775</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.57986118620593</v>
+        <v>9.967144042891682</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.03551353305172</v>
+        <v>16.77190580671756</v>
       </c>
       <c r="O12">
-        <v>16.99202098796562</v>
+        <v>21.27863415369143</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.53109499039943</v>
+        <v>17.83188787783763</v>
       </c>
       <c r="C13">
-        <v>14.84177171225978</v>
+        <v>10.75542618570655</v>
       </c>
       <c r="D13">
-        <v>4.531540614645261</v>
+        <v>4.76927606019276</v>
       </c>
       <c r="E13">
-        <v>6.690040990948448</v>
+        <v>11.15122883972077</v>
       </c>
       <c r="F13">
-        <v>23.03099557473233</v>
+        <v>24.29902253355199</v>
       </c>
       <c r="I13">
-        <v>13.28267553027109</v>
+        <v>20.85935308049415</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.563227152500232</v>
+        <v>9.964571640348311</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.04244701257842</v>
+        <v>16.77424555538198</v>
       </c>
       <c r="O13">
-        <v>16.96522733703913</v>
+        <v>21.27801600153713</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.28766097502905</v>
+        <v>17.72934032291318</v>
       </c>
       <c r="C14">
-        <v>14.73771577888014</v>
+        <v>10.70925535517284</v>
       </c>
       <c r="D14">
-        <v>4.510135013557499</v>
+        <v>4.762033052267792</v>
       </c>
       <c r="E14">
-        <v>6.688786162070455</v>
+        <v>11.15665713858387</v>
       </c>
       <c r="F14">
-        <v>22.87265164617441</v>
+        <v>24.27949919635165</v>
       </c>
       <c r="I14">
-        <v>13.26742210853711</v>
+        <v>20.8721466038634</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.50888348624853</v>
+        <v>9.956221107807236</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.06516799237285</v>
+        <v>16.78192081820759</v>
       </c>
       <c r="O14">
-        <v>16.87813690734783</v>
+        <v>21.27614981549453</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.1375799918691</v>
+        <v>17.6662541041747</v>
       </c>
       <c r="C15">
-        <v>14.67363528556326</v>
+        <v>10.68085131821112</v>
       </c>
       <c r="D15">
-        <v>4.496969978438836</v>
+        <v>4.757585443963308</v>
       </c>
       <c r="E15">
-        <v>6.688135403895097</v>
+        <v>11.16001856035465</v>
       </c>
       <c r="F15">
-        <v>22.77566829098556</v>
+        <v>24.26767982094022</v>
       </c>
       <c r="I15">
-        <v>13.25849306684426</v>
+        <v>20.88008273339046</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.475523042236038</v>
+        <v>9.951135978514651</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.07916881588869</v>
+        <v>16.78665659985344</v>
       </c>
       <c r="O15">
-        <v>16.82501459958321</v>
+        <v>21.27512180021426</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.2625834863494</v>
+        <v>17.30063337584057</v>
       </c>
       <c r="C16">
-        <v>14.30117147789146</v>
+        <v>10.51622069868681</v>
       </c>
       <c r="D16">
-        <v>4.420717416149559</v>
+        <v>4.731931249644134</v>
       </c>
       <c r="E16">
-        <v>6.686180185097826</v>
+        <v>11.17983977067527</v>
       </c>
       <c r="F16">
-        <v>22.22009128504499</v>
+        <v>24.20209498101462</v>
       </c>
       <c r="I16">
-        <v>13.21354108486925</v>
+        <v>20.92708743365626</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.2832557673949</v>
+        <v>9.922457334884111</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.16066297804285</v>
+        <v>16.8143240834834</v>
       </c>
       <c r="O16">
-        <v>16.52403923085383</v>
+        <v>21.2709948546619</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.7123965309926</v>
+        <v>17.07277410579498</v>
       </c>
       <c r="C17">
-        <v>14.06801818093028</v>
+        <v>10.41359796165364</v>
       </c>
       <c r="D17">
-        <v>4.373229214033047</v>
+        <v>4.716047418964769</v>
       </c>
       <c r="E17">
-        <v>6.686528547065322</v>
+        <v>11.19249743155485</v>
       </c>
       <c r="F17">
-        <v>21.87954332355392</v>
+        <v>24.16379057342125</v>
       </c>
       <c r="I17">
-        <v>13.191368246597</v>
+        <v>20.95728209487194</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.164369717866661</v>
+        <v>9.905281911648629</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.21176178277185</v>
+        <v>16.83176937360361</v>
       </c>
       <c r="O17">
-        <v>16.34250779293804</v>
+        <v>21.27003750075432</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.39098949645012</v>
+        <v>16.94044561705245</v>
       </c>
       <c r="C18">
-        <v>13.93221207095977</v>
+        <v>10.35398693253343</v>
       </c>
       <c r="D18">
-        <v>4.345659514108272</v>
+        <v>4.706859063473753</v>
       </c>
       <c r="E18">
-        <v>6.687283860861879</v>
+        <v>11.19996073042437</v>
       </c>
       <c r="F18">
-        <v>21.68381773762906</v>
+        <v>24.14247329386921</v>
       </c>
       <c r="I18">
-        <v>13.18054334446143</v>
+        <v>20.97514749131805</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.095661767489549</v>
+        <v>9.895558849623532</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.24155070442061</v>
+        <v>16.84197716057628</v>
       </c>
       <c r="O18">
-        <v>16.23925038545972</v>
+        <v>21.27006541231152</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.28131313189363</v>
+        <v>16.89542728139908</v>
       </c>
       <c r="C19">
-        <v>13.88593908858572</v>
+        <v>10.33370442376325</v>
       </c>
       <c r="D19">
-        <v>4.33628146751512</v>
+        <v>4.703739158687688</v>
       </c>
       <c r="E19">
-        <v>6.687633599664568</v>
+        <v>11.20251909051802</v>
       </c>
       <c r="F19">
-        <v>21.61757856718407</v>
+        <v>24.13537880126172</v>
       </c>
       <c r="I19">
-        <v>13.17720390197202</v>
+        <v>20.98128187091968</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.072343776433152</v>
+        <v>9.892293746940371</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.25170441749355</v>
+        <v>16.8454631963813</v>
       </c>
       <c r="O19">
-        <v>16.20448875543774</v>
+        <v>21.270174218738</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.77147697615209</v>
+        <v>17.09716246000513</v>
       </c>
       <c r="C20">
-        <v>14.09301418836244</v>
+        <v>10.42458318446018</v>
       </c>
       <c r="D20">
-        <v>4.378311000946788</v>
+        <v>4.717743729618228</v>
       </c>
       <c r="E20">
-        <v>6.686433716841826</v>
+        <v>11.19113106618417</v>
       </c>
       <c r="F20">
-        <v>21.91578093728167</v>
+        <v>24.16779431878116</v>
       </c>
       <c r="I20">
-        <v>13.19352770197368</v>
+        <v>20.95401623158053</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.177059655717969</v>
+        <v>9.907094189768468</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.20628084238288</v>
+        <v>16.82989431792153</v>
       </c>
       <c r="O20">
-        <v>16.36171291314484</v>
+        <v>21.27007953210808</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.35936556300666</v>
+        <v>17.75951808778803</v>
       </c>
       <c r="C21">
-        <v>14.76835109281455</v>
+        <v>10.72284256007626</v>
       </c>
       <c r="D21">
-        <v>4.516433528962104</v>
+        <v>4.76416280998507</v>
       </c>
       <c r="E21">
-        <v>6.689130095737758</v>
+        <v>11.15505512289455</v>
       </c>
       <c r="F21">
-        <v>22.91915986848688</v>
+        <v>24.28520469008918</v>
       </c>
       <c r="I21">
-        <v>13.27181579577</v>
+        <v>20.86836804670433</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.524860905178565</v>
+        <v>9.958667661257149</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.05847682590551</v>
+        <v>16.77965922673338</v>
       </c>
       <c r="O21">
-        <v>16.90367104915619</v>
+        <v>21.27667397869557</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.35362467165413</v>
+        <v>18.18029522282185</v>
       </c>
       <c r="C22">
-        <v>15.19438412075155</v>
+        <v>10.9122977456256</v>
       </c>
       <c r="D22">
-        <v>4.604323925561992</v>
+        <v>4.794008674159678</v>
       </c>
       <c r="E22">
-        <v>6.696130054823089</v>
+        <v>11.13310784980681</v>
       </c>
       <c r="F22">
-        <v>23.57535058660365</v>
+        <v>24.36818531597045</v>
       </c>
       <c r="I22">
-        <v>13.34136261556076</v>
+        <v>20.81685252482834</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.748926663830842</v>
+        <v>9.993714188413758</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.96559719661151</v>
+        <v>16.74837061769356</v>
       </c>
       <c r="O22">
-        <v>17.267891485034</v>
+        <v>21.28613451076076</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.82692223251682</v>
+        <v>17.95686265291783</v>
       </c>
       <c r="C23">
-        <v>14.96841231895238</v>
+        <v>10.81169492602865</v>
       </c>
       <c r="D23">
-        <v>4.557637624428911</v>
+        <v>4.778125565317975</v>
       </c>
       <c r="E23">
-        <v>6.69190036795703</v>
+        <v>11.1446722742522</v>
       </c>
       <c r="F23">
-        <v>23.22512827375151</v>
+        <v>24.32333143619523</v>
       </c>
       <c r="I23">
-        <v>13.30250485935341</v>
+        <v>20.84393804348627</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.629649074309057</v>
+        <v>9.974888897993219</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.01481952574043</v>
+        <v>16.76492894891686</v>
       </c>
       <c r="O23">
-        <v>17.07259525620847</v>
+        <v>21.28061417753123</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.74478259015896</v>
+        <v>17.08614061578533</v>
       </c>
       <c r="C24">
-        <v>14.08171898303886</v>
+        <v>10.41961866802458</v>
       </c>
       <c r="D24">
-        <v>4.376014358957602</v>
+        <v>4.716977003362753</v>
       </c>
       <c r="E24">
-        <v>6.686474864044283</v>
+        <v>11.19174821986418</v>
       </c>
       <c r="F24">
-        <v>21.89939771458044</v>
+        <v>24.16598202998836</v>
       </c>
       <c r="I24">
-        <v>13.19254543742659</v>
+        <v>20.95549115219566</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.171323648496335</v>
+        <v>9.906274386982664</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.20875749551223</v>
+        <v>16.83074147527696</v>
       </c>
       <c r="O24">
-        <v>16.35302682585757</v>
+        <v>21.27005872832712</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.30912200146162</v>
+        <v>16.09900253995024</v>
       </c>
       <c r="C25">
-        <v>13.06040241621708</v>
+        <v>9.974522196392904</v>
       </c>
       <c r="D25">
-        <v>4.170406731391214</v>
+        <v>4.649030497439746</v>
       </c>
       <c r="E25">
-        <v>6.701668531582043</v>
+        <v>11.24952090739074</v>
       </c>
       <c r="F25">
-        <v>20.47585813545549</v>
+        <v>24.02361631517392</v>
       </c>
       <c r="I25">
-        <v>13.14689764459675</v>
+        <v>21.09485296442495</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.664692862090987</v>
+        <v>9.838242758349752</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.43310321271344</v>
+        <v>16.90837524040976</v>
       </c>
       <c r="O25">
-        <v>15.62117044099024</v>
+        <v>21.28078502532818</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.33611787836899</v>
+        <v>21.34919022353479</v>
       </c>
       <c r="C2">
-        <v>9.62931669507082</v>
+        <v>12.25416528577333</v>
       </c>
       <c r="D2">
-        <v>4.597420465463608</v>
+        <v>4.011326362211549</v>
       </c>
       <c r="E2">
-        <v>11.29807201308701</v>
+        <v>6.72938210806035</v>
       </c>
       <c r="F2">
-        <v>23.94278361640686</v>
+        <v>19.43947684852005</v>
       </c>
       <c r="I2">
-        <v>21.21371602361772</v>
+        <v>13.16921961618087</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.793511073609263</v>
+        <v>7.28335438655919</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.97128367727474</v>
+        <v>11.61058767969205</v>
       </c>
       <c r="O2">
-        <v>21.30764794258969</v>
+        <v>15.12171418146843</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.79978730627835</v>
+        <v>19.91538461742333</v>
       </c>
       <c r="C3">
-        <v>9.385398829475919</v>
+        <v>11.67517096243647</v>
       </c>
       <c r="D3">
-        <v>4.561524701291841</v>
+        <v>3.899113725011866</v>
       </c>
       <c r="E3">
-        <v>11.33472574819229</v>
+        <v>6.757698356730161</v>
       </c>
       <c r="F3">
-        <v>23.90313876310368</v>
+        <v>18.74833624107812</v>
       </c>
       <c r="I3">
-        <v>21.30434765447411</v>
+        <v>13.21573282872595</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,16 +486,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.766638514954566</v>
+        <v>7.021169348069205</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.01751924943386</v>
+        <v>11.7382438746434</v>
       </c>
       <c r="O3">
-        <v>21.33763568331365</v>
+        <v>14.80836298832361</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.46219974906846</v>
+        <v>18.98243774131467</v>
       </c>
       <c r="C4">
-        <v>9.231070339598851</v>
+        <v>11.30416590228597</v>
       </c>
       <c r="D4">
-        <v>4.539054447938458</v>
+        <v>3.828197527829012</v>
       </c>
       <c r="E4">
-        <v>11.35908074061769</v>
+        <v>6.77953626663661</v>
       </c>
       <c r="F4">
-        <v>23.88630220175017</v>
+        <v>18.33099309647064</v>
       </c>
       <c r="I4">
-        <v>21.36494592026638</v>
+        <v>13.25860506615971</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.75186690558504</v>
+        <v>6.858909906774533</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.04769044553765</v>
+        <v>11.82017921998095</v>
       </c>
       <c r="O4">
-        <v>21.36183839125057</v>
+        <v>14.62848032956845</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.32275817636329</v>
+        <v>18.58895686602514</v>
       </c>
       <c r="C5">
-        <v>9.167091483399329</v>
+        <v>11.14918952222049</v>
       </c>
       <c r="D5">
-        <v>4.529793137811152</v>
+        <v>3.79881716480925</v>
       </c>
       <c r="E5">
-        <v>11.36947058010747</v>
+        <v>6.789518195180516</v>
       </c>
       <c r="F5">
-        <v>23.88133300709764</v>
+        <v>18.16292673994023</v>
       </c>
       <c r="I5">
-        <v>21.39088183560243</v>
+        <v>13.2795025412317</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.746286305178936</v>
+        <v>6.792562949640739</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.06043444482736</v>
+        <v>11.85445111985796</v>
       </c>
       <c r="O5">
-        <v>21.37315355256291</v>
+        <v>14.55833284436684</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.29949746584862</v>
+        <v>18.52281437381698</v>
       </c>
       <c r="C6">
-        <v>9.156403872213788</v>
+        <v>11.12323057055603</v>
       </c>
       <c r="D6">
-        <v>4.528249100109575</v>
+        <v>3.793910296726968</v>
       </c>
       <c r="E6">
-        <v>11.37122388656356</v>
+        <v>6.791240030264609</v>
       </c>
       <c r="F6">
-        <v>23.88062223020153</v>
+        <v>18.13514765042287</v>
       </c>
       <c r="I6">
-        <v>21.39526337482694</v>
+        <v>13.28317451508865</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.745386281979393</v>
+        <v>6.781535472938632</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.06257771805997</v>
+        <v>11.86019495154854</v>
       </c>
       <c r="O6">
-        <v>21.37512002751485</v>
+        <v>14.54687554838157</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.4603264789444</v>
+        <v>18.97718505976912</v>
       </c>
       <c r="C7">
-        <v>9.230211826494209</v>
+        <v>11.30209101827544</v>
       </c>
       <c r="D7">
-        <v>4.538929964947791</v>
+        <v>3.82780320762668</v>
       </c>
       <c r="E7">
-        <v>11.35921897902846</v>
+        <v>6.77966654996304</v>
       </c>
       <c r="F7">
-        <v>23.88622752105204</v>
+        <v>18.32871805708995</v>
       </c>
       <c r="I7">
-        <v>21.36529067791629</v>
+        <v>13.25887324853704</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.751789860890664</v>
+        <v>6.858015906100634</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.04786049654992</v>
+        <v>11.82063786284657</v>
       </c>
       <c r="O7">
-        <v>21.36198511618566</v>
+        <v>14.62752151417131</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.15302908782256</v>
+        <v>20.86568251434587</v>
       </c>
       <c r="C8">
-        <v>9.546194401480383</v>
+        <v>12.05780410482238</v>
       </c>
       <c r="D8">
-        <v>4.585135055784989</v>
+        <v>3.973068913272964</v>
       </c>
       <c r="E8">
-        <v>11.31032632289195</v>
+        <v>6.73819937321828</v>
       </c>
       <c r="F8">
-        <v>23.92755961959307</v>
+        <v>19.19985489571417</v>
       </c>
       <c r="I8">
-        <v>21.24393656076753</v>
+        <v>13.18218247536118</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.783889455423596</v>
+        <v>7.19327302651152</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.98685625101474</v>
+        <v>11.6538588126679</v>
       </c>
       <c r="O8">
-        <v>21.31678399483671</v>
+        <v>15.01108178999747</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.43750218531817</v>
+        <v>24.15523066777077</v>
       </c>
       <c r="C9">
-        <v>10.12728418958737</v>
+        <v>13.41299047207795</v>
       </c>
       <c r="D9">
-        <v>4.672172816317947</v>
+        <v>4.240908494250996</v>
       </c>
       <c r="E9">
-        <v>11.22912585648783</v>
+        <v>6.693878892618576</v>
       </c>
       <c r="F9">
-        <v>24.06787303428634</v>
+        <v>20.95401766896191</v>
       </c>
       <c r="I9">
-        <v>21.04537618889175</v>
+        <v>13.15312291908265</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.860340714839054</v>
+        <v>7.836811126487254</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.88133364027148</v>
+        <v>11.35557688788082</v>
       </c>
       <c r="O9">
-        <v>21.27422101782892</v>
+        <v>15.86166120514841</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.32645871805533</v>
+        <v>26.32469435842285</v>
       </c>
       <c r="C10">
-        <v>10.52785043375107</v>
+        <v>14.32754445989456</v>
       </c>
       <c r="D10">
-        <v>4.73373651895815</v>
+        <v>4.426101121267779</v>
       </c>
       <c r="E10">
-        <v>11.17842023797238</v>
+        <v>6.686216634558112</v>
       </c>
       <c r="F10">
-        <v>24.20656221360428</v>
+        <v>22.25896691086264</v>
       </c>
       <c r="I10">
-        <v>20.92370960583138</v>
+        <v>13.21633664051157</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.924438123534463</v>
+        <v>8.296775857418707</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.81235697984877</v>
+        <v>11.15488676239057</v>
       </c>
       <c r="O10">
-        <v>21.27118249664104</v>
+        <v>16.5449087565689</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.71729242500076</v>
+        <v>27.2590185236852</v>
       </c>
       <c r="C11">
-        <v>10.70383091105485</v>
+        <v>14.72548197306878</v>
       </c>
       <c r="D11">
-        <v>4.761183186996946</v>
+        <v>4.507620619680897</v>
       </c>
       <c r="E11">
-        <v>11.15729778451201</v>
+        <v>6.688654753422274</v>
       </c>
       <c r="F11">
-        <v>24.27723070043848</v>
+        <v>22.85410498122088</v>
       </c>
       <c r="I11">
-        <v>20.87365832169452</v>
+        <v>13.2656901470916</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.955246902742152</v>
+        <v>8.502508274654028</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.78282440021101</v>
+        <v>11.06784043847126</v>
       </c>
       <c r="O11">
-        <v>21.27594640141345</v>
+        <v>16.86796504112286</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.86322277005385</v>
+        <v>27.60535345138715</v>
       </c>
       <c r="C12">
-        <v>10.76953435833005</v>
+        <v>14.87354169258768</v>
       </c>
       <c r="D12">
-        <v>4.771492574080225</v>
+        <v>4.538082855249495</v>
       </c>
       <c r="E12">
-        <v>11.14957887830411</v>
+        <v>6.690473110711779</v>
       </c>
       <c r="F12">
-        <v>24.30506448100369</v>
+        <v>23.07955112788484</v>
       </c>
       <c r="I12">
-        <v>20.85546997235775</v>
+        <v>13.2875192510969</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.967144042891682</v>
+        <v>8.579861186205941</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.77190580671756</v>
+        <v>11.03551353305178</v>
       </c>
       <c r="O12">
-        <v>21.27863415369143</v>
+        <v>16.9920209879657</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.83188787783763</v>
+        <v>27.53109499039941</v>
       </c>
       <c r="C13">
-        <v>10.75542618570655</v>
+        <v>14.84177171225965</v>
       </c>
       <c r="D13">
-        <v>4.76927606019276</v>
+        <v>4.531540614645547</v>
       </c>
       <c r="E13">
-        <v>11.15122883972077</v>
+        <v>6.690040990948464</v>
       </c>
       <c r="F13">
-        <v>24.29902253355199</v>
+        <v>23.03099557473237</v>
       </c>
       <c r="I13">
-        <v>20.85935308049415</v>
+        <v>13.28267553027115</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.964571640348311</v>
+        <v>8.563227152500247</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.77424555538198</v>
+        <v>11.0424470125784</v>
       </c>
       <c r="O13">
-        <v>21.27801600153713</v>
+        <v>16.9652273370392</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.72934032291318</v>
+        <v>27.2876609750291</v>
       </c>
       <c r="C14">
-        <v>10.70925535517284</v>
+        <v>14.73771577888013</v>
       </c>
       <c r="D14">
-        <v>4.762033052267792</v>
+        <v>4.510135013557445</v>
       </c>
       <c r="E14">
-        <v>11.15665713858387</v>
+        <v>6.688786162070461</v>
       </c>
       <c r="F14">
-        <v>24.27949919635165</v>
+        <v>22.87265164617444</v>
       </c>
       <c r="I14">
-        <v>20.8721466038634</v>
+        <v>13.26742210853713</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.956221107807236</v>
+        <v>8.508883486248525</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.78192081820759</v>
+        <v>11.06516799237288</v>
       </c>
       <c r="O14">
-        <v>21.27614981549453</v>
+        <v>16.87813690734784</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.6662541041747</v>
+        <v>27.13757999186913</v>
       </c>
       <c r="C15">
-        <v>10.68085131821112</v>
+        <v>14.67363528556333</v>
       </c>
       <c r="D15">
-        <v>4.757585443963308</v>
+        <v>4.496969978438823</v>
       </c>
       <c r="E15">
-        <v>11.16001856035465</v>
+        <v>6.688135403895144</v>
       </c>
       <c r="F15">
-        <v>24.26767982094022</v>
+        <v>22.77566829098558</v>
       </c>
       <c r="I15">
-        <v>20.88008273339046</v>
+        <v>13.25849306684428</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.951135978514651</v>
+        <v>8.47552304223605</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.78665659985344</v>
+        <v>11.07916881588869</v>
       </c>
       <c r="O15">
-        <v>21.27512180021426</v>
+        <v>16.8250145995832</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.30063337584057</v>
+        <v>26.26258348634942</v>
       </c>
       <c r="C16">
-        <v>10.51622069868681</v>
+        <v>14.30117147789135</v>
       </c>
       <c r="D16">
-        <v>4.731931249644134</v>
+        <v>4.420717416149427</v>
       </c>
       <c r="E16">
-        <v>11.17983977067527</v>
+        <v>6.686180185097715</v>
       </c>
       <c r="F16">
-        <v>24.20209498101462</v>
+        <v>22.22009128504502</v>
       </c>
       <c r="I16">
-        <v>20.92708743365626</v>
+        <v>13.21354108486925</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.922457334884111</v>
+        <v>8.283255767394873</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.8143240834834</v>
+        <v>11.16066297804288</v>
       </c>
       <c r="O16">
-        <v>21.2709948546619</v>
+        <v>16.52403923085386</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.07277410579498</v>
+        <v>25.71239653099261</v>
       </c>
       <c r="C17">
-        <v>10.41359796165364</v>
+        <v>14.0680181809302</v>
       </c>
       <c r="D17">
-        <v>4.716047418964769</v>
+        <v>4.373229214032957</v>
       </c>
       <c r="E17">
-        <v>11.19249743155485</v>
+        <v>6.686528547065268</v>
       </c>
       <c r="F17">
-        <v>24.16379057342125</v>
+        <v>21.87954332355396</v>
       </c>
       <c r="I17">
-        <v>20.95728209487194</v>
+        <v>13.19136824659699</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.905281911648629</v>
+        <v>8.16436971786665</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.83176937360361</v>
+        <v>11.21176178277184</v>
       </c>
       <c r="O17">
-        <v>21.27003750075432</v>
+        <v>16.34250779293804</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.94044561705245</v>
+        <v>25.39098949645012</v>
       </c>
       <c r="C18">
-        <v>10.35398693253343</v>
+        <v>13.93221207095978</v>
       </c>
       <c r="D18">
-        <v>4.706859063473753</v>
+        <v>4.345659514108278</v>
       </c>
       <c r="E18">
-        <v>11.19996073042437</v>
+        <v>6.687283860861823</v>
       </c>
       <c r="F18">
-        <v>24.14247329386921</v>
+        <v>21.68381773762907</v>
       </c>
       <c r="I18">
-        <v>20.97514749131805</v>
+        <v>13.18054334446139</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.895558849623532</v>
+        <v>8.095661767489545</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.84197716057628</v>
+        <v>11.24155070442058</v>
       </c>
       <c r="O18">
-        <v>21.27006541231152</v>
+        <v>16.23925038545972</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.89542728139908</v>
+        <v>25.28131313189366</v>
       </c>
       <c r="C19">
-        <v>10.33370442376325</v>
+        <v>13.88593908858579</v>
       </c>
       <c r="D19">
-        <v>4.703739158687688</v>
+        <v>4.336281467515009</v>
       </c>
       <c r="E19">
-        <v>11.20251909051802</v>
+        <v>6.687633599664575</v>
       </c>
       <c r="F19">
-        <v>24.13537880126172</v>
+        <v>21.61757856718406</v>
       </c>
       <c r="I19">
-        <v>20.98128187091968</v>
+        <v>13.17720390197193</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.892293746940371</v>
+        <v>8.072343776433165</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.8454631963813</v>
+        <v>11.25170441749348</v>
       </c>
       <c r="O19">
-        <v>21.270174218738</v>
+        <v>16.20448875543771</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.09716246000513</v>
+        <v>25.77147697615211</v>
       </c>
       <c r="C20">
-        <v>10.42458318446018</v>
+        <v>14.09301418836245</v>
       </c>
       <c r="D20">
-        <v>4.717743729618228</v>
+        <v>4.378311000946933</v>
       </c>
       <c r="E20">
-        <v>11.19113106618417</v>
+        <v>6.686433716841779</v>
       </c>
       <c r="F20">
-        <v>24.16779431878116</v>
+        <v>21.91578093728164</v>
       </c>
       <c r="I20">
-        <v>20.95401623158053</v>
+        <v>13.19352770197363</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.907094189768468</v>
+        <v>8.177059655717969</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.82989431792153</v>
+        <v>11.20628084238285</v>
       </c>
       <c r="O20">
-        <v>21.27007953210808</v>
+        <v>16.36171291314481</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.75951808778803</v>
+        <v>27.35936556300672</v>
       </c>
       <c r="C21">
-        <v>10.72284256007626</v>
+        <v>14.76835109281454</v>
       </c>
       <c r="D21">
-        <v>4.76416280998507</v>
+        <v>4.516433528962239</v>
       </c>
       <c r="E21">
-        <v>11.15505512289455</v>
+        <v>6.689130095737765</v>
       </c>
       <c r="F21">
-        <v>24.28520469008918</v>
+        <v>22.91915986848686</v>
       </c>
       <c r="I21">
-        <v>20.86836804670433</v>
+        <v>13.27181579576997</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.958667661257149</v>
+        <v>8.524860905178537</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.77965922673338</v>
+        <v>11.0584768259055</v>
       </c>
       <c r="O21">
-        <v>21.27667397869557</v>
+        <v>16.90367104915618</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.18029522282185</v>
+        <v>28.3536246716542</v>
       </c>
       <c r="C22">
-        <v>10.9122977456256</v>
+        <v>15.1943841207513</v>
       </c>
       <c r="D22">
-        <v>4.794008674159678</v>
+        <v>4.60432392556213</v>
       </c>
       <c r="E22">
-        <v>11.13310784980681</v>
+        <v>6.696130054823057</v>
       </c>
       <c r="F22">
-        <v>24.36818531597045</v>
+        <v>23.57535058660364</v>
       </c>
       <c r="I22">
-        <v>20.81685252482834</v>
+        <v>13.34136261556067</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.993714188413758</v>
+        <v>8.748926663830854</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.74837061769356</v>
+        <v>10.96559719661144</v>
       </c>
       <c r="O22">
-        <v>21.28613451076076</v>
+        <v>17.26789148503399</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.95686265291783</v>
+        <v>27.82692223251684</v>
       </c>
       <c r="C23">
-        <v>10.81169492602865</v>
+        <v>14.96841231895246</v>
       </c>
       <c r="D23">
-        <v>4.778125565317975</v>
+        <v>4.557637624428899</v>
       </c>
       <c r="E23">
-        <v>11.1446722742522</v>
+        <v>6.691900367957089</v>
       </c>
       <c r="F23">
-        <v>24.32333143619523</v>
+        <v>23.2251282737515</v>
       </c>
       <c r="I23">
-        <v>20.84393804348627</v>
+        <v>13.3025048593534</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.974888897993219</v>
+        <v>8.629649074309057</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.76492894891686</v>
+        <v>11.01481952574039</v>
       </c>
       <c r="O23">
-        <v>21.28061417753123</v>
+        <v>17.07259525620845</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.08614061578533</v>
+        <v>25.74478259015902</v>
       </c>
       <c r="C24">
-        <v>10.41961866802458</v>
+        <v>14.0817189830389</v>
       </c>
       <c r="D24">
-        <v>4.716977003362753</v>
+        <v>4.376014358957566</v>
       </c>
       <c r="E24">
-        <v>11.19174821986418</v>
+        <v>6.686474864044238</v>
       </c>
       <c r="F24">
-        <v>24.16598202998836</v>
+        <v>21.89939771458045</v>
       </c>
       <c r="I24">
-        <v>20.95549115219566</v>
+        <v>13.19254543742653</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.906274386982664</v>
+        <v>8.171323648496303</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.83074147527696</v>
+        <v>11.20875749551219</v>
       </c>
       <c r="O24">
-        <v>21.27005872832712</v>
+        <v>16.35302682585754</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.09900253995024</v>
+        <v>23.30912200146162</v>
       </c>
       <c r="C25">
-        <v>9.974522196392904</v>
+        <v>13.06040241621704</v>
       </c>
       <c r="D25">
-        <v>4.649030497439746</v>
+        <v>4.170406731391208</v>
       </c>
       <c r="E25">
-        <v>11.24952090739074</v>
+        <v>6.701668531581991</v>
       </c>
       <c r="F25">
-        <v>24.02361631517392</v>
+        <v>20.47585813545553</v>
       </c>
       <c r="I25">
-        <v>21.09485296442495</v>
+        <v>13.14689764459678</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.838242758349752</v>
+        <v>7.664692862090962</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.90837524040976</v>
+        <v>11.43310321271344</v>
       </c>
       <c r="O25">
-        <v>21.28078502532818</v>
+        <v>15.62117044099026</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.34919022353479</v>
+        <v>13.30639134133675</v>
       </c>
       <c r="C2">
-        <v>12.25416528577333</v>
+        <v>8.674162012851651</v>
       </c>
       <c r="D2">
-        <v>4.011326362211549</v>
+        <v>7.955559306716306</v>
       </c>
       <c r="E2">
-        <v>6.72938210806035</v>
+        <v>11.72179202089677</v>
       </c>
       <c r="F2">
-        <v>19.43947684852005</v>
+        <v>23.93744094948785</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2.134625389898428</v>
       </c>
       <c r="I2">
-        <v>13.16921961618087</v>
+        <v>3.150420056458417</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.4084260209705</v>
       </c>
       <c r="L2">
-        <v>7.28335438655919</v>
+        <v>6.948949681477827</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.21268758552792</v>
       </c>
       <c r="N2">
-        <v>11.61058767969205</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.12171418146843</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>16.96954368816019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.91538461742333</v>
+        <v>12.4652612585882</v>
       </c>
       <c r="C3">
-        <v>11.67517096243647</v>
+        <v>8.159630235592944</v>
       </c>
       <c r="D3">
-        <v>3.899113725011866</v>
+        <v>7.529867329937202</v>
       </c>
       <c r="E3">
-        <v>6.757698356730161</v>
+        <v>11.13772503807709</v>
       </c>
       <c r="F3">
-        <v>18.74833624107812</v>
+        <v>23.57796511885123</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2.352658657752834</v>
       </c>
       <c r="I3">
-        <v>13.21573282872595</v>
+        <v>3.300260151034857</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.51759423343644</v>
       </c>
       <c r="L3">
-        <v>7.021169348069205</v>
+        <v>6.742929663311847</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.50947337311189</v>
       </c>
       <c r="N3">
-        <v>11.7382438746434</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.80836298832361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>16.95002881964606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.98243774131467</v>
+        <v>11.91733578054642</v>
       </c>
       <c r="C4">
-        <v>11.30416590228597</v>
+        <v>7.830775454770762</v>
       </c>
       <c r="D4">
-        <v>3.828197527829012</v>
+        <v>7.257503684607356</v>
       </c>
       <c r="E4">
-        <v>6.77953626663661</v>
+        <v>10.76359212830651</v>
       </c>
       <c r="F4">
-        <v>18.33099309647064</v>
+        <v>23.36108554401298</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2.491595348883514</v>
       </c>
       <c r="I4">
-        <v>13.25860506615971</v>
+        <v>3.396269845596442</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.58815799716634</v>
       </c>
       <c r="L4">
-        <v>6.858909906774533</v>
+        <v>6.612504439636005</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.05520387226053</v>
       </c>
       <c r="N4">
-        <v>11.82017921998095</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.62848032956845</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>16.94350553571964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.58895686602514</v>
+        <v>11.68371542768866</v>
       </c>
       <c r="C5">
-        <v>11.14918952222049</v>
+        <v>7.703874428666246</v>
       </c>
       <c r="D5">
-        <v>3.79881716480925</v>
+        <v>7.146512407634144</v>
       </c>
       <c r="E5">
-        <v>6.789518195180516</v>
+        <v>10.60837493482729</v>
       </c>
       <c r="F5">
-        <v>18.16292673994023</v>
+        <v>23.26470322526856</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2.549719594704772</v>
       </c>
       <c r="I5">
-        <v>13.2795025412317</v>
+        <v>3.439091754076061</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.61180976896361</v>
       </c>
       <c r="L5">
-        <v>6.792562949640739</v>
+        <v>6.558068157540546</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.8663942686893</v>
       </c>
       <c r="N5">
-        <v>11.85445111985796</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.55833284436684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>16.93577168883419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.52281437381698</v>
+        <v>11.64147561581487</v>
       </c>
       <c r="C6">
-        <v>11.12323057055603</v>
+        <v>7.695248122900998</v>
       </c>
       <c r="D6">
-        <v>3.793910296726968</v>
+        <v>7.131197683300089</v>
       </c>
       <c r="E6">
-        <v>6.791240030264609</v>
+        <v>10.583643535979</v>
       </c>
       <c r="F6">
-        <v>18.13514765042287</v>
+        <v>23.23772444546916</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2.5597136551532</v>
       </c>
       <c r="I6">
-        <v>13.28317451508865</v>
+        <v>3.449704018335809</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.60850004885361</v>
       </c>
       <c r="L6">
-        <v>6.781535472938632</v>
+        <v>6.548558752714642</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.83703234128085</v>
       </c>
       <c r="N6">
-        <v>11.86019495154854</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.54687554838157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>16.92673299779732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.97718505976912</v>
+        <v>11.90629341804871</v>
       </c>
       <c r="C7">
-        <v>11.30209101827544</v>
+        <v>7.862856416115742</v>
       </c>
       <c r="D7">
-        <v>3.82780320762668</v>
+        <v>7.26478176157609</v>
       </c>
       <c r="E7">
-        <v>6.77966654996304</v>
+        <v>10.76491817772782</v>
       </c>
       <c r="F7">
-        <v>18.32871805708995</v>
+        <v>23.32982436319446</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2.493082318908355</v>
       </c>
       <c r="I7">
-        <v>13.25887324853704</v>
+        <v>3.405943674189463</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.56858016472076</v>
       </c>
       <c r="L7">
-        <v>6.858015906100634</v>
+        <v>6.610660510185943</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.05891231673562</v>
       </c>
       <c r="N7">
-        <v>11.82063786284657</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.62752151417131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>16.92205475724772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86568251434587</v>
+        <v>13.01320526762505</v>
       </c>
       <c r="C8">
-        <v>12.05780410482238</v>
+        <v>8.541051446990494</v>
       </c>
       <c r="D8">
-        <v>3.973068913272964</v>
+        <v>7.821941236210475</v>
       </c>
       <c r="E8">
-        <v>6.73819937321828</v>
+        <v>11.52793786385726</v>
       </c>
       <c r="F8">
-        <v>19.19985489571417</v>
+        <v>23.77401445974405</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2.209642091317821</v>
       </c>
       <c r="I8">
-        <v>13.18218247536118</v>
+        <v>3.212870318180827</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.41909624891083</v>
       </c>
       <c r="L8">
-        <v>7.19327302651152</v>
+        <v>6.87735700762286</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.98265791327525</v>
       </c>
       <c r="N8">
-        <v>11.6538588126679</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.01108178999747</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>16.93369963276342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.15523066777077</v>
+        <v>14.94701336215499</v>
       </c>
       <c r="C9">
-        <v>13.41299047207795</v>
+        <v>9.712933419677315</v>
       </c>
       <c r="D9">
-        <v>4.240908494250996</v>
+        <v>8.81018092572794</v>
       </c>
       <c r="E9">
-        <v>6.693878892618576</v>
+        <v>12.89166703448272</v>
       </c>
       <c r="F9">
-        <v>20.95401766896191</v>
+        <v>24.72493685191337</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1.692060429999586</v>
       </c>
       <c r="I9">
-        <v>13.15312291908265</v>
+        <v>2.85072018759786</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.19056944257174</v>
       </c>
       <c r="L9">
-        <v>7.836811126487254</v>
+        <v>7.369474504047638</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.60347887718685</v>
       </c>
       <c r="N9">
-        <v>11.35557688788082</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.86166120514841</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>17.03938594078579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.32469435842285</v>
+        <v>16.21592659280373</v>
       </c>
       <c r="C10">
-        <v>14.32754445989456</v>
+        <v>10.49864262573068</v>
       </c>
       <c r="D10">
-        <v>4.426101121267779</v>
+        <v>9.391364021984492</v>
       </c>
       <c r="E10">
-        <v>6.686216634558112</v>
+        <v>13.58252195417308</v>
       </c>
       <c r="F10">
-        <v>22.25896691086264</v>
+        <v>25.23925376622578</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1.770941157761754</v>
       </c>
       <c r="I10">
-        <v>13.21633664051157</v>
+        <v>2.61379460765921</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.96999669656357</v>
       </c>
       <c r="L10">
-        <v>8.296775857418707</v>
+        <v>7.597858461517708</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.67799130775798</v>
       </c>
       <c r="N10">
-        <v>11.15488676239057</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>16.5449087565689</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>17.04535340451294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.2590185236852</v>
+        <v>16.77460512160936</v>
       </c>
       <c r="C11">
-        <v>14.72548197306878</v>
+        <v>10.67099512026425</v>
       </c>
       <c r="D11">
-        <v>4.507620619680897</v>
+        <v>8.8784059760258</v>
       </c>
       <c r="E11">
-        <v>6.688654753422274</v>
+        <v>11.92626803221077</v>
       </c>
       <c r="F11">
-        <v>22.85410498122088</v>
+        <v>23.84831503906515</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2.72229980183415</v>
       </c>
       <c r="I11">
-        <v>13.2656901470916</v>
+        <v>2.565902124099941</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.3159860866627</v>
       </c>
       <c r="L11">
-        <v>8.502508274654028</v>
+        <v>6.792567595835809</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.09058282134255</v>
       </c>
       <c r="N11">
-        <v>11.06784043847126</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>16.86796504112286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>16.23626759985633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.60535345138715</v>
+        <v>16.99943380293675</v>
       </c>
       <c r="C12">
-        <v>14.87354169258768</v>
+        <v>10.61469943893234</v>
       </c>
       <c r="D12">
-        <v>4.538082855249495</v>
+        <v>8.30743862167588</v>
       </c>
       <c r="E12">
-        <v>6.690473110711779</v>
+        <v>10.40843774797171</v>
       </c>
       <c r="F12">
-        <v>23.07955112788484</v>
+        <v>22.60314757937758</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.036792350556706</v>
       </c>
       <c r="I12">
-        <v>13.2875192510969</v>
+        <v>2.553988814292502</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.85657501828344</v>
       </c>
       <c r="L12">
-        <v>8.579861186205941</v>
+        <v>6.150658555967558</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.21321272980795</v>
       </c>
       <c r="N12">
-        <v>11.03551353305178</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>16.9920209879657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>15.58590413602339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.53109499039941</v>
+        <v>16.97929700809731</v>
       </c>
       <c r="C13">
-        <v>14.84177171225965</v>
+        <v>10.41776968263288</v>
       </c>
       <c r="D13">
-        <v>4.531540614645547</v>
+        <v>7.651897116004528</v>
       </c>
       <c r="E13">
-        <v>6.690040990948464</v>
+        <v>8.896004799255691</v>
       </c>
       <c r="F13">
-        <v>23.03099557473237</v>
+        <v>21.34461757475054</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.483401735672092</v>
       </c>
       <c r="I13">
-        <v>13.28267553027115</v>
+        <v>2.584665228161953</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.49261252921979</v>
       </c>
       <c r="L13">
-        <v>8.563227152500247</v>
+        <v>5.616008251530173</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.13157342993371</v>
       </c>
       <c r="N13">
-        <v>11.0424470125784</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>16.9652273370392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>14.98779030662756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.2876609750291</v>
+        <v>16.85251839507783</v>
       </c>
       <c r="C14">
-        <v>14.73771577888013</v>
+        <v>10.22174244769474</v>
       </c>
       <c r="D14">
-        <v>4.510135013557445</v>
+        <v>7.148880428694686</v>
       </c>
       <c r="E14">
-        <v>6.688786162070461</v>
+        <v>7.859354915955574</v>
       </c>
       <c r="F14">
-        <v>22.87265164617444</v>
+        <v>20.45528193729325</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.510953779481691</v>
       </c>
       <c r="I14">
-        <v>13.26742210853713</v>
+        <v>2.628405611096798</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.28342985597609</v>
       </c>
       <c r="L14">
-        <v>8.508883486248525</v>
+        <v>5.324835891947862</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.98261629169481</v>
       </c>
       <c r="N14">
-        <v>11.06516799237288</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>16.87813690734784</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>14.59360442858984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.13757999186913</v>
+        <v>16.766131087921</v>
       </c>
       <c r="C15">
-        <v>14.67363528556333</v>
+        <v>10.15351851315316</v>
       </c>
       <c r="D15">
-        <v>4.496969978438823</v>
+        <v>7.009996807454605</v>
       </c>
       <c r="E15">
-        <v>6.688135403895144</v>
+        <v>7.605800785211706</v>
       </c>
       <c r="F15">
-        <v>22.77566829098558</v>
+        <v>20.22835805392103</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.749298803332849</v>
       </c>
       <c r="I15">
-        <v>13.25849306684428</v>
+        <v>2.653183757990341</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.2461591339085</v>
       </c>
       <c r="L15">
-        <v>8.47552304223605</v>
+        <v>5.265648329539842</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.90390433185194</v>
       </c>
       <c r="N15">
-        <v>11.07916881588869</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>16.8250145995832</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>14.50297331446609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.26258348634942</v>
+        <v>16.24883509542105</v>
       </c>
       <c r="C16">
-        <v>14.30117147789135</v>
+        <v>9.873581728497086</v>
       </c>
       <c r="D16">
-        <v>4.420717416149427</v>
+        <v>6.860339089773519</v>
       </c>
       <c r="E16">
-        <v>6.686180185097715</v>
+        <v>7.535441317384689</v>
       </c>
       <c r="F16">
-        <v>22.22009128504502</v>
+        <v>20.22849445941673</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.545885947812851</v>
       </c>
       <c r="I16">
-        <v>13.21354108486925</v>
+        <v>2.753269120129671</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.40945509888046</v>
       </c>
       <c r="L16">
-        <v>8.283255767394873</v>
+        <v>5.259561794452281</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.47853183357026</v>
       </c>
       <c r="N16">
-        <v>11.16066297804288</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>16.52403923085386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>14.61157281474654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.71239653099261</v>
+        <v>15.9131567197673</v>
       </c>
       <c r="C17">
-        <v>14.0680181809302</v>
+        <v>9.765268289516174</v>
       </c>
       <c r="D17">
-        <v>4.373229214032957</v>
+        <v>7.024079533762905</v>
       </c>
       <c r="E17">
-        <v>6.686528547065268</v>
+        <v>8.033871652327253</v>
       </c>
       <c r="F17">
-        <v>21.87954332355396</v>
+        <v>20.70128712138831</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5.812803934800807</v>
       </c>
       <c r="I17">
-        <v>13.19136824659699</v>
+        <v>2.807791312946127</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.64088702858557</v>
       </c>
       <c r="L17">
-        <v>8.16436971786665</v>
+        <v>5.393883800253406</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.22845617144265</v>
       </c>
       <c r="N17">
-        <v>11.21176178277184</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>16.34250779293804</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14.90076075286489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.39098949645012</v>
+        <v>15.70927267628239</v>
       </c>
       <c r="C18">
-        <v>13.93221207095978</v>
+        <v>9.7733523285383</v>
       </c>
       <c r="D18">
-        <v>4.345659514108278</v>
+        <v>7.472400488106453</v>
       </c>
       <c r="E18">
-        <v>6.687283860861823</v>
+        <v>9.14709264352066</v>
       </c>
       <c r="F18">
-        <v>21.68381773762907</v>
+        <v>21.66455403421766</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.561515247968914</v>
       </c>
       <c r="I18">
-        <v>13.18054334446139</v>
+        <v>2.816945542372267</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.98241645578995</v>
       </c>
       <c r="L18">
-        <v>8.095661767489545</v>
+        <v>5.74997092161804</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.10289109098417</v>
       </c>
       <c r="N18">
-        <v>11.24155070442058</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>16.23925038545972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>15.39993779697463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.28131313189366</v>
+        <v>15.61880572097742</v>
       </c>
       <c r="C19">
-        <v>13.88593908858579</v>
+        <v>9.926546302749315</v>
       </c>
       <c r="D19">
-        <v>4.336281467515009</v>
+        <v>8.123233547086308</v>
       </c>
       <c r="E19">
-        <v>6.687633599664575</v>
+        <v>10.73071815926393</v>
       </c>
       <c r="F19">
-        <v>21.61757856718406</v>
+        <v>22.92052505670025</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.07078781302247</v>
       </c>
       <c r="I19">
-        <v>13.17720390197193</v>
+        <v>2.806865963552391</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.37900706513749</v>
       </c>
       <c r="L19">
-        <v>8.072343776433165</v>
+        <v>6.356141210160754</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.09938331638662</v>
       </c>
       <c r="N19">
-        <v>11.25170441749348</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>16.20448875543771</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>16.0118998233567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.77147697615211</v>
+        <v>15.87387865694265</v>
       </c>
       <c r="C20">
-        <v>14.09301418836245</v>
+        <v>10.37849105553927</v>
       </c>
       <c r="D20">
-        <v>4.378311000946933</v>
+        <v>9.25965358996706</v>
       </c>
       <c r="E20">
-        <v>6.686433716841779</v>
+        <v>13.40311933661846</v>
       </c>
       <c r="F20">
-        <v>21.91578093728164</v>
+        <v>25.00980639592504</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1.679602225486443</v>
       </c>
       <c r="I20">
-        <v>13.19352770197363</v>
+        <v>2.706870629275484</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.96303444277349</v>
       </c>
       <c r="L20">
-        <v>8.177059655717969</v>
+        <v>7.531023539114487</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.41873899174634</v>
       </c>
       <c r="N20">
-        <v>11.20628084238285</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>16.36171291314481</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>16.97391395952618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.35936556300672</v>
+        <v>16.80115605914177</v>
       </c>
       <c r="C21">
-        <v>14.76835109281454</v>
+        <v>10.97765503370444</v>
       </c>
       <c r="D21">
-        <v>4.516433528962239</v>
+        <v>9.821869536363623</v>
       </c>
       <c r="E21">
-        <v>6.689130095737765</v>
+        <v>14.26459520984568</v>
       </c>
       <c r="F21">
-        <v>22.91915986848686</v>
+        <v>25.71385626973993</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1.94999156221993</v>
       </c>
       <c r="I21">
-        <v>13.27181579576997</v>
+        <v>2.518512218880435</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.91018865264246</v>
       </c>
       <c r="L21">
-        <v>8.524860905178537</v>
+        <v>7.8721773061349</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.21461757517677</v>
       </c>
       <c r="N21">
-        <v>11.0584768259055</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>16.90367104915618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>17.14481584031455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.3536246716542</v>
+        <v>17.38860262086181</v>
       </c>
       <c r="C22">
-        <v>15.1943841207513</v>
+        <v>11.31337467645995</v>
       </c>
       <c r="D22">
-        <v>4.60432392556213</v>
+        <v>10.12326619951523</v>
       </c>
       <c r="E22">
-        <v>6.696130054823057</v>
+        <v>14.68937109949708</v>
       </c>
       <c r="F22">
-        <v>23.57535058660364</v>
+        <v>26.11495842443928</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2.117575189955116</v>
       </c>
       <c r="I22">
-        <v>13.34136261556067</v>
+        <v>2.611338477060281</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.87351076938536</v>
       </c>
       <c r="L22">
-        <v>8.748926663830854</v>
+        <v>8.034814342504227</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.70468292702315</v>
       </c>
       <c r="N22">
-        <v>10.96559719661144</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.26789148503399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>17.24208055722634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.82692223251684</v>
+        <v>17.08435541831765</v>
       </c>
       <c r="C23">
-        <v>14.96841231895246</v>
+        <v>11.1056400054089</v>
       </c>
       <c r="D23">
-        <v>4.557637624428899</v>
+        <v>9.95566544259464</v>
       </c>
       <c r="E23">
-        <v>6.691900367957089</v>
+        <v>14.46095636859971</v>
       </c>
       <c r="F23">
-        <v>23.2251282737515</v>
+        <v>25.93205571336247</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2.02909705928105</v>
       </c>
       <c r="I23">
-        <v>13.3025048593534</v>
+        <v>2.546689269891316</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.91578113810028</v>
       </c>
       <c r="L23">
-        <v>8.629649074309057</v>
+        <v>7.949455430711387</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.43939293338276</v>
       </c>
       <c r="N23">
-        <v>11.01481952574039</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.07259525620845</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>17.21343430204112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.74478259015902</v>
+        <v>15.86728489325446</v>
       </c>
       <c r="C24">
-        <v>14.0817189830389</v>
+        <v>10.34025731193202</v>
       </c>
       <c r="D24">
-        <v>4.376014358957566</v>
+        <v>9.310419018083874</v>
       </c>
       <c r="E24">
-        <v>6.686474864044238</v>
+        <v>13.56952367626331</v>
       </c>
       <c r="F24">
-        <v>21.89939771458045</v>
+        <v>25.19450923014119</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1.685589304682888</v>
       </c>
       <c r="I24">
-        <v>13.19254543742653</v>
+        <v>2.686688709732401</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.04863400463144</v>
       </c>
       <c r="L24">
-        <v>8.171323648496303</v>
+        <v>7.615834737666188</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.40200976065376</v>
       </c>
       <c r="N24">
-        <v>11.20875749551219</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>16.35302682585754</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>17.08083977911817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.30912200146162</v>
+        <v>14.43853979192407</v>
       </c>
       <c r="C25">
-        <v>13.06040241621704</v>
+        <v>9.458875028616347</v>
       </c>
       <c r="D25">
-        <v>4.170406731391208</v>
+        <v>8.566364635249935</v>
       </c>
       <c r="E25">
-        <v>6.701668531581991</v>
+        <v>12.54217229380205</v>
       </c>
       <c r="F25">
-        <v>20.47585813545553</v>
+        <v>24.41401803243155</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1.829080464171947</v>
       </c>
       <c r="I25">
-        <v>13.14689764459678</v>
+        <v>2.962294043484581</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.21349053128336</v>
       </c>
       <c r="L25">
-        <v>7.664692862090962</v>
+        <v>7.238275685170155</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.19425294477849</v>
       </c>
       <c r="N25">
-        <v>11.43310321271344</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.62117044099026</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>16.96809865926617</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.30639134133675</v>
+        <v>13.29136908281004</v>
       </c>
       <c r="C2">
-        <v>8.674162012851651</v>
+        <v>8.989441703038665</v>
       </c>
       <c r="D2">
-        <v>7.955559306716306</v>
+        <v>8.137313610171418</v>
       </c>
       <c r="E2">
-        <v>11.72179202089677</v>
+        <v>11.84884473127481</v>
       </c>
       <c r="F2">
-        <v>23.93744094948785</v>
+        <v>23.25891373022653</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.134625389898428</v>
+        <v>2.056801024376674</v>
       </c>
       <c r="I2">
-        <v>3.150420056458417</v>
+        <v>2.991026869970808</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>15.4084260209705</v>
+        <v>14.71895908037295</v>
       </c>
       <c r="L2">
-        <v>6.948949681477827</v>
+        <v>12.17917806304123</v>
       </c>
       <c r="M2">
-        <v>12.21268758552792</v>
+        <v>9.572047417142505</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.970112263393869</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.33346827943719</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>16.96954368816019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>16.39128501707277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.4652612585882</v>
+        <v>12.47937306182055</v>
       </c>
       <c r="C3">
-        <v>8.159630235592944</v>
+        <v>8.370454356381057</v>
       </c>
       <c r="D3">
-        <v>7.529867329937202</v>
+        <v>7.695882726436531</v>
       </c>
       <c r="E3">
-        <v>11.13772503807709</v>
+        <v>11.2635236379966</v>
       </c>
       <c r="F3">
-        <v>23.57796511885123</v>
+        <v>22.96591409617259</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.352658657752834</v>
+        <v>2.267413442858296</v>
       </c>
       <c r="I3">
-        <v>3.300260151034857</v>
+        <v>3.125288602014612</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>15.51759423343644</v>
+        <v>14.86247860198701</v>
       </c>
       <c r="L3">
-        <v>6.742929663311847</v>
+        <v>12.34659526708202</v>
       </c>
       <c r="M3">
-        <v>11.50947337311189</v>
+        <v>9.652367941382968</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.770143987113802</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.61568029289625</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.95002881964606</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>16.4175480229389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.91733578054642</v>
+        <v>11.95086054107899</v>
       </c>
       <c r="C4">
-        <v>7.830775454770762</v>
+        <v>7.973094677670664</v>
       </c>
       <c r="D4">
-        <v>7.257503684607356</v>
+        <v>7.41364883571457</v>
       </c>
       <c r="E4">
-        <v>10.76359212830651</v>
+        <v>10.88889900050598</v>
       </c>
       <c r="F4">
-        <v>23.36108554401298</v>
+        <v>22.78943375265024</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.491595348883514</v>
+        <v>2.401662278312182</v>
       </c>
       <c r="I4">
-        <v>3.396269845596442</v>
+        <v>3.21162104540068</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>15.58815799716634</v>
+        <v>14.95307711871624</v>
       </c>
       <c r="L4">
-        <v>6.612504439636005</v>
+        <v>12.45156203862087</v>
       </c>
       <c r="M4">
-        <v>11.05520387226053</v>
+        <v>9.718483638220437</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.643622177242831</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.15201411199886</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.94350553571964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>16.43828922367607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.68371542768866</v>
+        <v>11.72565135829391</v>
       </c>
       <c r="C5">
-        <v>7.703874428666246</v>
+        <v>7.817312429502077</v>
       </c>
       <c r="D5">
-        <v>7.146512407634144</v>
+        <v>7.298482471607333</v>
       </c>
       <c r="E5">
-        <v>10.60837493482729</v>
+        <v>10.7335137712757</v>
       </c>
       <c r="F5">
-        <v>23.26470322526856</v>
+        <v>22.70975686763932</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.549719594704772</v>
+        <v>2.45783515632817</v>
       </c>
       <c r="I5">
-        <v>3.439091754076061</v>
+        <v>3.25095057657567</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>15.61180976896361</v>
+        <v>14.98507992615706</v>
       </c>
       <c r="L5">
-        <v>6.558068157540546</v>
+        <v>12.48951152355305</v>
       </c>
       <c r="M5">
-        <v>10.8663942686893</v>
+        <v>9.746669812903789</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.590836108713575</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.95920403552468</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16.93577168883419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>16.44177658172736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.64147561581487</v>
+        <v>11.68495416951616</v>
       </c>
       <c r="C6">
-        <v>7.695248122900998</v>
+        <v>7.803995566903859</v>
       </c>
       <c r="D6">
-        <v>7.131197683300089</v>
+        <v>7.282331437738025</v>
       </c>
       <c r="E6">
-        <v>10.583643535979</v>
+        <v>10.70870112269885</v>
       </c>
       <c r="F6">
-        <v>23.23772444546916</v>
+        <v>22.68601143507805</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.5597136551532</v>
+        <v>2.467494659537266</v>
       </c>
       <c r="I6">
-        <v>3.449704018335809</v>
+        <v>3.261615433518402</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>15.60850004885361</v>
+        <v>14.98368605064675</v>
       </c>
       <c r="L6">
-        <v>6.548558752714642</v>
+        <v>12.48929270340832</v>
       </c>
       <c r="M6">
-        <v>10.83703234128085</v>
+        <v>9.748048252811932</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.581619824271298</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.92908889393406</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.92673299779732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>16.43499081714566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.90629341804871</v>
+        <v>11.94025082892164</v>
       </c>
       <c r="C7">
-        <v>7.862856416115742</v>
+        <v>8.005200676575546</v>
       </c>
       <c r="D7">
-        <v>7.26478176157609</v>
+        <v>7.420496270126526</v>
       </c>
       <c r="E7">
-        <v>10.76491817772782</v>
+        <v>10.8900674798166</v>
       </c>
       <c r="F7">
-        <v>23.32982436319446</v>
+        <v>22.75969678555083</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.493082318908355</v>
+        <v>2.40309944397843</v>
       </c>
       <c r="I7">
-        <v>3.405943674189463</v>
+        <v>3.2229130789852</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>15.56858016472076</v>
+        <v>14.93517114000164</v>
       </c>
       <c r="L7">
-        <v>6.610660510185943</v>
+        <v>12.43469651428204</v>
       </c>
       <c r="M7">
-        <v>11.05891231673562</v>
+        <v>9.708649525822672</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.641844765953102</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.15544822795109</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16.92205475724772</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>16.41812291686606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.01320526762505</v>
+        <v>13.0083075959787</v>
       </c>
       <c r="C8">
-        <v>8.541051446990494</v>
+        <v>8.821510416544196</v>
       </c>
       <c r="D8">
-        <v>7.821941236210475</v>
+        <v>7.997869183017868</v>
       </c>
       <c r="E8">
-        <v>11.52793786385726</v>
+        <v>11.65432109315094</v>
       </c>
       <c r="F8">
-        <v>23.77401445974405</v>
+        <v>23.12023949602185</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.209642091317821</v>
+        <v>2.129251715704908</v>
       </c>
       <c r="I8">
-        <v>3.212870318180827</v>
+        <v>3.050267349961333</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>15.41909624891083</v>
+        <v>14.74404482741679</v>
       </c>
       <c r="L8">
-        <v>6.87735700762286</v>
+        <v>12.21566484295531</v>
       </c>
       <c r="M8">
-        <v>11.98265791327525</v>
+        <v>9.580683071255928</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.900624666075809</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.09824332891291</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16.93369963276342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>16.37300751476163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.94701336215499</v>
+        <v>14.87686058414846</v>
       </c>
       <c r="C9">
-        <v>9.712933419677315</v>
+        <v>10.22979841183268</v>
       </c>
       <c r="D9">
-        <v>8.81018092572794</v>
+        <v>9.024166298101894</v>
       </c>
       <c r="E9">
-        <v>12.89166703448272</v>
+        <v>13.02251756341602</v>
       </c>
       <c r="F9">
-        <v>24.72493685191337</v>
+        <v>23.9029434815687</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.692060429999586</v>
+        <v>1.629538827668362</v>
       </c>
       <c r="I9">
-        <v>2.85072018759786</v>
+        <v>2.724667507050827</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>15.19056944257174</v>
+        <v>14.42172057893405</v>
       </c>
       <c r="L9">
-        <v>7.369474504047638</v>
+        <v>11.83022713609953</v>
       </c>
       <c r="M9">
-        <v>13.60347887718685</v>
+        <v>9.488142483344667</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.378656975035823</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.75288272578674</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17.03938594078579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>16.35876859900052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.21592659280373</v>
+        <v>16.10666418135882</v>
       </c>
       <c r="C10">
-        <v>10.49864262573068</v>
+        <v>11.15735584757747</v>
       </c>
       <c r="D10">
-        <v>9.391364021984492</v>
+        <v>9.628436953759193</v>
       </c>
       <c r="E10">
-        <v>13.58252195417308</v>
+        <v>13.71626280699851</v>
       </c>
       <c r="F10">
-        <v>25.23925376622578</v>
+        <v>24.30846087317385</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.770941157761754</v>
+        <v>1.8196260899142</v>
       </c>
       <c r="I10">
-        <v>2.61379460765921</v>
+        <v>2.514928305474034</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>14.96999669656357</v>
+        <v>14.13981598130679</v>
       </c>
       <c r="L10">
-        <v>7.597858461517708</v>
+        <v>11.51593853755647</v>
       </c>
       <c r="M10">
-        <v>14.67799130775798</v>
+        <v>9.457127993398119</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.598417751102772</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.84738651735119</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17.04535340451294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>16.28487354258325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.77460512160936</v>
+        <v>16.67041422936277</v>
       </c>
       <c r="C11">
-        <v>10.67099512026425</v>
+        <v>11.29076411622518</v>
       </c>
       <c r="D11">
-        <v>8.8784059760258</v>
+        <v>9.100530956260423</v>
       </c>
       <c r="E11">
-        <v>11.92626803221077</v>
+        <v>12.05263056344955</v>
       </c>
       <c r="F11">
-        <v>23.84831503906515</v>
+        <v>22.98415617404345</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.72229980183415</v>
+        <v>2.75197540280229</v>
       </c>
       <c r="I11">
-        <v>2.565902124099941</v>
+        <v>2.542395449059524</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>14.3159860866627</v>
+        <v>13.56831479099675</v>
       </c>
       <c r="L11">
-        <v>6.792567595835809</v>
+        <v>11.08017737375404</v>
       </c>
       <c r="M11">
-        <v>15.09058282134255</v>
+        <v>9.067553611312672</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.796130962743105</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.25050999334403</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16.23626759985633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>15.53563607397699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.99943380293675</v>
+        <v>16.90719107656225</v>
       </c>
       <c r="C12">
-        <v>10.61469943893234</v>
+        <v>11.17209465267777</v>
       </c>
       <c r="D12">
-        <v>8.30743862167588</v>
+        <v>8.512320685416542</v>
       </c>
       <c r="E12">
-        <v>10.40843774797171</v>
+        <v>10.52803140642444</v>
       </c>
       <c r="F12">
-        <v>22.60314757937758</v>
+        <v>21.81682090891916</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.036792350556706</v>
+        <v>4.056241476425966</v>
       </c>
       <c r="I12">
-        <v>2.553988814292502</v>
+        <v>2.55272413795075</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>13.85657501828344</v>
+        <v>13.18725921589681</v>
       </c>
       <c r="L12">
-        <v>6.150658555967558</v>
+        <v>10.81937044365407</v>
       </c>
       <c r="M12">
-        <v>15.21321272980795</v>
+        <v>8.763520171000431</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.158801742334656</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.36100416878125</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15.58590413602339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>14.95088564306164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.97929700809731</v>
+        <v>16.90560468953213</v>
       </c>
       <c r="C13">
-        <v>10.41776968263288</v>
+        <v>10.88883956591213</v>
       </c>
       <c r="D13">
-        <v>7.651897116004528</v>
+        <v>7.836020917004594</v>
       </c>
       <c r="E13">
-        <v>8.896004799255691</v>
+        <v>9.009188074952723</v>
       </c>
       <c r="F13">
-        <v>21.34461757475054</v>
+        <v>20.65187588319344</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.483401735672092</v>
+        <v>5.470165454253194</v>
       </c>
       <c r="I13">
-        <v>2.584665228161953</v>
+        <v>2.523658884090202</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>13.49261252921979</v>
+        <v>12.90408549463012</v>
       </c>
       <c r="L13">
-        <v>5.616008251530173</v>
+        <v>10.64462298203553</v>
       </c>
       <c r="M13">
-        <v>15.13157342993371</v>
+        <v>8.493653783399754</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.630296159636582</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.26387216199685</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.98779030662756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>14.4281957201832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.85251839507783</v>
+        <v>16.79509427354542</v>
       </c>
       <c r="C14">
-        <v>10.22174244769474</v>
+        <v>10.62012629806527</v>
       </c>
       <c r="D14">
-        <v>7.148880428694686</v>
+        <v>7.316701277391707</v>
       </c>
       <c r="E14">
-        <v>7.859354915955574</v>
+        <v>7.968545927361791</v>
       </c>
       <c r="F14">
-        <v>20.45528193729325</v>
+        <v>19.83502433379295</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.510953779481691</v>
+        <v>6.498759616330103</v>
       </c>
       <c r="I14">
-        <v>2.628405611096798</v>
+        <v>2.534347459039441</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>13.28342985597609</v>
+        <v>12.75080253056698</v>
       </c>
       <c r="L14">
-        <v>5.324835891947862</v>
+        <v>10.55591057117237</v>
       </c>
       <c r="M14">
-        <v>14.98261629169481</v>
+        <v>8.326467243032598</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.343936347896737</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.10226462749035</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.59360442858984</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>14.09046923153061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.766131087921</v>
+        <v>16.71422981962072</v>
       </c>
       <c r="C15">
-        <v>10.15351851315316</v>
+        <v>10.52868871133239</v>
       </c>
       <c r="D15">
-        <v>7.009996807454605</v>
+        <v>7.173014381747256</v>
       </c>
       <c r="E15">
-        <v>7.605800785211706</v>
+        <v>7.714237264015357</v>
       </c>
       <c r="F15">
-        <v>20.22835805392103</v>
+        <v>19.6292694735511</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.749298803332849</v>
+        <v>6.737073446996273</v>
       </c>
       <c r="I15">
-        <v>2.653183757990341</v>
+        <v>2.557872057075479</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>13.2461591339085</v>
+        <v>12.72797061500167</v>
       </c>
       <c r="L15">
-        <v>5.265648329539842</v>
+        <v>10.54459158925514</v>
       </c>
       <c r="M15">
-        <v>14.90390433185194</v>
+        <v>8.291766377687743</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.286176448468767</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.01966511215755</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.50297331446609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>14.01578163296829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.24883509542105</v>
+        <v>16.21042518186905</v>
       </c>
       <c r="C16">
-        <v>9.873581728497086</v>
+        <v>10.20082084943635</v>
       </c>
       <c r="D16">
-        <v>6.860339089773519</v>
+        <v>7.016992800085754</v>
       </c>
       <c r="E16">
-        <v>7.535441317384689</v>
+        <v>7.645981368363651</v>
       </c>
       <c r="F16">
-        <v>20.22849445941673</v>
+        <v>19.65760854510433</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.545885947812851</v>
+        <v>6.530939723779062</v>
       </c>
       <c r="I16">
-        <v>2.753269120129671</v>
+        <v>2.648236791190584</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>13.40945509888046</v>
+        <v>12.89615899052397</v>
       </c>
       <c r="L16">
-        <v>5.259561794452281</v>
+        <v>10.66477262769398</v>
       </c>
       <c r="M16">
-        <v>14.47853183357026</v>
+        <v>8.378861226878186</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.282919376824424</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.58800185992546</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.61157281474654</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>14.14178505701206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.9131567197673</v>
+        <v>15.87629305149695</v>
       </c>
       <c r="C17">
-        <v>9.765268289516174</v>
+        <v>10.09584669213068</v>
       </c>
       <c r="D17">
-        <v>7.024079533762905</v>
+        <v>7.18462894492051</v>
       </c>
       <c r="E17">
-        <v>8.033871652327253</v>
+        <v>8.147402071308873</v>
       </c>
       <c r="F17">
-        <v>20.70128712138831</v>
+        <v>20.11394815359044</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.812803934800807</v>
+        <v>5.794526182774793</v>
       </c>
       <c r="I17">
-        <v>2.807791312946127</v>
+        <v>2.697670241974145</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>13.64088702858557</v>
+        <v>13.10388029428519</v>
       </c>
       <c r="L17">
-        <v>5.393883800253406</v>
+        <v>10.8122908198976</v>
       </c>
       <c r="M17">
-        <v>14.22845617144265</v>
+        <v>8.525670063875429</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.416974182284397</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.34007367054569</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.90076075286489</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>14.41532978328135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.70927267628239</v>
+        <v>15.6633659456091</v>
       </c>
       <c r="C18">
-        <v>9.7733523285383</v>
+        <v>10.15285200764238</v>
       </c>
       <c r="D18">
-        <v>7.472400488106453</v>
+        <v>7.646423240294125</v>
       </c>
       <c r="E18">
-        <v>9.14709264352066</v>
+        <v>9.264642520931094</v>
       </c>
       <c r="F18">
-        <v>21.66455403421766</v>
+        <v>21.01902624140982</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.561515247968914</v>
+        <v>4.537943592548076</v>
       </c>
       <c r="I18">
-        <v>2.816945542372267</v>
+        <v>2.703307688902406</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>13.98241645578995</v>
+        <v>13.39131731244655</v>
       </c>
       <c r="L18">
-        <v>5.74997092161804</v>
+        <v>11.02060970410845</v>
       </c>
       <c r="M18">
-        <v>14.10289109098417</v>
+        <v>8.748207886994381</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.769650582422329</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.22436366371496</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15.39993779697463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.86710989766561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.61880572097742</v>
+        <v>15.55654638489832</v>
       </c>
       <c r="C19">
-        <v>9.926546302749315</v>
+        <v>10.38671272966424</v>
       </c>
       <c r="D19">
-        <v>8.123233547086308</v>
+        <v>8.316892704401178</v>
       </c>
       <c r="E19">
-        <v>10.73071815926393</v>
+        <v>10.85342493594734</v>
       </c>
       <c r="F19">
-        <v>22.92052505670025</v>
+        <v>22.18851711641395</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.07078781302247</v>
+        <v>3.037775457611453</v>
       </c>
       <c r="I19">
-        <v>2.806865963552391</v>
+        <v>2.69571477027245</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>14.37900706513749</v>
+        <v>13.71273502735675</v>
       </c>
       <c r="L19">
-        <v>6.356141210160754</v>
+        <v>11.2558907629398</v>
       </c>
       <c r="M19">
-        <v>14.09938331638662</v>
+        <v>9.005743137547608</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.370041152878062</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.23554972491123</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16.0118998233567</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>15.40979967078114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.87387865694265</v>
+        <v>15.77537920409366</v>
       </c>
       <c r="C20">
-        <v>10.37849105553927</v>
+        <v>11.00035555707827</v>
       </c>
       <c r="D20">
-        <v>9.25965358996706</v>
+        <v>9.489796463448782</v>
       </c>
       <c r="E20">
-        <v>13.40311933661846</v>
+        <v>13.53570716906122</v>
       </c>
       <c r="F20">
-        <v>25.00980639592504</v>
+        <v>24.11211566405008</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.679602225486443</v>
+        <v>1.731594087002282</v>
       </c>
       <c r="I20">
-        <v>2.706870629275484</v>
+        <v>2.607156943588265</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>14.96303444277349</v>
+        <v>14.15651625748323</v>
       </c>
       <c r="L20">
-        <v>7.531023539114487</v>
+        <v>11.55731869596451</v>
       </c>
       <c r="M20">
-        <v>14.41873899174634</v>
+        <v>9.413102948534654</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.533961457906903</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.58244117360701</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16.97391395952618</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>16.23911783363432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.80115605914177</v>
+        <v>16.67036496624857</v>
       </c>
       <c r="C21">
-        <v>10.97765503370444</v>
+        <v>11.72003415444387</v>
       </c>
       <c r="D21">
-        <v>9.821869536363623</v>
+        <v>10.07367581146303</v>
       </c>
       <c r="E21">
-        <v>14.26459520984568</v>
+        <v>14.40106557784003</v>
       </c>
       <c r="F21">
-        <v>25.71385626973993</v>
+        <v>24.71223227380506</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.94999156221993</v>
+        <v>1.99270051234338</v>
       </c>
       <c r="I21">
-        <v>2.518512218880435</v>
+        <v>2.597208797072285</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>14.91018865264246</v>
+        <v>14.03416186755617</v>
       </c>
       <c r="L21">
-        <v>7.8721773061349</v>
+        <v>11.38548182184561</v>
       </c>
       <c r="M21">
-        <v>15.21461757517677</v>
+        <v>9.48896585873625</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.8675743930654</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.39605598087988</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17.14481584031455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>16.33012004178259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.38860262086181</v>
+        <v>17.23867897931712</v>
       </c>
       <c r="C22">
-        <v>11.31337467645995</v>
+        <v>12.12523741515711</v>
       </c>
       <c r="D22">
-        <v>10.12326619951523</v>
+        <v>10.38764035881806</v>
       </c>
       <c r="E22">
-        <v>14.68937109949708</v>
+        <v>14.82803348056672</v>
       </c>
       <c r="F22">
-        <v>26.11495842443928</v>
+        <v>25.05123918283458</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.117575189955116</v>
+        <v>2.154229501676369</v>
       </c>
       <c r="I22">
-        <v>2.611338477060281</v>
+        <v>2.695176673434199</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>14.87351076938536</v>
+        <v>13.95414071923765</v>
       </c>
       <c r="L22">
-        <v>8.034814342504227</v>
+        <v>11.2707649918954</v>
       </c>
       <c r="M22">
-        <v>15.70468292702315</v>
+        <v>9.553921988993633</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.025796669236279</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.89628650186835</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17.24208055722634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>16.37865202953965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.08435541831765</v>
+        <v>16.94428915929538</v>
       </c>
       <c r="C23">
-        <v>11.1056400054089</v>
+        <v>11.88093053314287</v>
       </c>
       <c r="D23">
-        <v>9.95566544259464</v>
+        <v>10.21368423604968</v>
       </c>
       <c r="E23">
-        <v>14.46095636859971</v>
+        <v>14.59857118715228</v>
       </c>
       <c r="F23">
-        <v>25.93205571336247</v>
+        <v>24.89989424127787</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.02909705928105</v>
+        <v>2.068940865167633</v>
       </c>
       <c r="I23">
-        <v>2.546689269891316</v>
+        <v>2.636088809649673</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839356</v>
       </c>
       <c r="K23">
-        <v>14.91578113810028</v>
+        <v>14.01702772944251</v>
       </c>
       <c r="L23">
-        <v>7.949455430711387</v>
+        <v>11.34519332643715</v>
       </c>
       <c r="M23">
-        <v>15.43939293338276</v>
+        <v>9.535780796501029</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.942730080702669</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.62581173738072</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17.21343430204112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>16.37451149962985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.86728489325446</v>
+        <v>15.76689815345017</v>
       </c>
       <c r="C24">
-        <v>10.34025731193202</v>
+        <v>10.96960971503187</v>
       </c>
       <c r="D24">
-        <v>9.310419018083874</v>
+        <v>9.54298820413077</v>
       </c>
       <c r="E24">
-        <v>13.56952367626331</v>
+        <v>13.70300076952907</v>
       </c>
       <c r="F24">
-        <v>25.19450923014119</v>
+        <v>24.28567657539575</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.685589304682888</v>
+        <v>1.737703182203144</v>
       </c>
       <c r="I24">
-        <v>2.686688709732401</v>
+        <v>2.583134564546643</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>15.04863400463144</v>
+        <v>14.22953186746715</v>
       </c>
       <c r="L24">
-        <v>7.615834737666188</v>
+        <v>11.61076195669601</v>
       </c>
       <c r="M24">
-        <v>14.40200976065376</v>
+        <v>9.471048147516886</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.618204597775733</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.56736837133272</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17.08083977911817</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>16.3363164124129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.43853979192407</v>
+        <v>14.38537067654463</v>
       </c>
       <c r="C25">
-        <v>9.458875028616347</v>
+        <v>9.915425291210713</v>
       </c>
       <c r="D25">
-        <v>8.566364635249935</v>
+        <v>8.769802495975304</v>
       </c>
       <c r="E25">
-        <v>12.54217229380205</v>
+        <v>12.67145059424571</v>
       </c>
       <c r="F25">
-        <v>24.41401803243155</v>
+        <v>23.63992540021779</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.829080464171947</v>
+        <v>1.761771962823554</v>
       </c>
       <c r="I25">
-        <v>2.962294043484581</v>
+        <v>2.829682357887968</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>15.21349053128336</v>
+        <v>14.47464448836855</v>
       </c>
       <c r="L25">
-        <v>7.238275685170155</v>
+        <v>11.90784177163035</v>
       </c>
       <c r="M25">
-        <v>13.19425294477849</v>
+        <v>9.473914841924779</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.251180570256014</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.33463436269326</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16.96809865926617</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>16.32288158714117</v>
       </c>
     </row>
   </sheetData>
